--- a/BookigModel2.0_Amadeus.xlsx
+++ b/BookigModel2.0_Amadeus.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u001EAO\Desktop\shared-repo\dudong\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U002EMD\dudong\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12720" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BookingModel2.0_Amadeus" sheetId="1" r:id="rId1"/>
     <sheet name="Estele" sheetId="2" r:id="rId2"/>
     <sheet name="DJ" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2722" uniqueCount="932">
   <si>
     <t>LOCATION</t>
   </si>
@@ -3179,21 +3179,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F415"/>
   <sheetViews>
-    <sheetView topLeftCell="A379" workbookViewId="0">
-      <selection activeCell="A396" sqref="A396:A415"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A387" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A209" sqref="A209:F415"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="56" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="56" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" customWidth="1"/>
     <col min="6" max="6" width="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3213,7 +3214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -3229,7 +3230,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -3245,7 +3246,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -3261,7 +3262,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -3277,7 +3278,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -3293,7 +3294,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
@@ -3311,7 +3312,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
@@ -3329,7 +3330,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -3347,7 +3348,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
@@ -3361,7 +3362,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
@@ -3379,7 +3380,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>40</v>
       </c>
@@ -3397,7 +3398,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>45</v>
       </c>
@@ -3415,7 +3416,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>48</v>
       </c>
@@ -3433,7 +3434,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>51</v>
       </c>
@@ -3451,7 +3452,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>54</v>
       </c>
@@ -3469,7 +3470,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>57</v>
       </c>
@@ -3487,7 +3488,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>60</v>
       </c>
@@ -3505,7 +3506,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>63</v>
       </c>
@@ -3523,7 +3524,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>66</v>
       </c>
@@ -3541,7 +3542,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>69</v>
       </c>
@@ -3559,7 +3560,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>72</v>
       </c>
@@ -3577,7 +3578,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>75</v>
       </c>
@@ -3595,7 +3596,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>79</v>
       </c>
@@ -3609,7 +3610,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>81</v>
       </c>
@@ -3623,7 +3624,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>82</v>
       </c>
@@ -3637,7 +3638,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>83</v>
       </c>
@@ -3655,7 +3656,7 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>87</v>
       </c>
@@ -3673,7 +3674,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>89</v>
       </c>
@@ -3691,7 +3692,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>93</v>
       </c>
@@ -3709,7 +3710,7 @@
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>97</v>
       </c>
@@ -3727,7 +3728,7 @@
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>100</v>
       </c>
@@ -3745,7 +3746,7 @@
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>103</v>
       </c>
@@ -3763,7 +3764,7 @@
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>106</v>
       </c>
@@ -3779,7 +3780,7 @@
       </c>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>109</v>
       </c>
@@ -3795,7 +3796,7 @@
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>111</v>
       </c>
@@ -3813,7 +3814,7 @@
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>114</v>
       </c>
@@ -3829,7 +3830,7 @@
       </c>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>116</v>
       </c>
@@ -3847,7 +3848,7 @@
       </c>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>120</v>
       </c>
@@ -3865,7 +3866,7 @@
       </c>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>123</v>
       </c>
@@ -3883,7 +3884,7 @@
       </c>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>126</v>
       </c>
@@ -3901,7 +3902,7 @@
       </c>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>129</v>
       </c>
@@ -3919,7 +3920,7 @@
       </c>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>132</v>
       </c>
@@ -3937,7 +3938,7 @@
       </c>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>135</v>
       </c>
@@ -3955,7 +3956,7 @@
       </c>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>139</v>
       </c>
@@ -3973,7 +3974,7 @@
       </c>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>143</v>
       </c>
@@ -3989,7 +3990,7 @@
       </c>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>145</v>
       </c>
@@ -4007,7 +4008,7 @@
       </c>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>149</v>
       </c>
@@ -4023,7 +4024,7 @@
       </c>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>151</v>
       </c>
@@ -4039,7 +4040,7 @@
       </c>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>154</v>
       </c>
@@ -4055,7 +4056,7 @@
       </c>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>157</v>
       </c>
@@ -4073,7 +4074,7 @@
       </c>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>160</v>
       </c>
@@ -4091,7 +4092,7 @@
       </c>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>163</v>
       </c>
@@ -4109,7 +4110,7 @@
       </c>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>166</v>
       </c>
@@ -4127,7 +4128,7 @@
       </c>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>169</v>
       </c>
@@ -4145,7 +4146,7 @@
       </c>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>173</v>
       </c>
@@ -4161,7 +4162,7 @@
       </c>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>175</v>
       </c>
@@ -4177,7 +4178,7 @@
       </c>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>177</v>
       </c>
@@ -4195,7 +4196,7 @@
       </c>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>180</v>
       </c>
@@ -4213,7 +4214,7 @@
       </c>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>183</v>
       </c>
@@ -4231,7 +4232,7 @@
       </c>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>185</v>
       </c>
@@ -4249,7 +4250,7 @@
       </c>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>186</v>
       </c>
@@ -4267,7 +4268,7 @@
       </c>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>189</v>
       </c>
@@ -4281,7 +4282,7 @@
       </c>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>191</v>
       </c>
@@ -4299,7 +4300,7 @@
       </c>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>194</v>
       </c>
@@ -4317,7 +4318,7 @@
       </c>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>195</v>
       </c>
@@ -4335,7 +4336,7 @@
       </c>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>196</v>
       </c>
@@ -4353,7 +4354,7 @@
       </c>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>197</v>
       </c>
@@ -4371,7 +4372,7 @@
       </c>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>198</v>
       </c>
@@ -4389,7 +4390,7 @@
       </c>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>199</v>
       </c>
@@ -4407,7 +4408,7 @@
       </c>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>200</v>
       </c>
@@ -4425,7 +4426,7 @@
       </c>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>201</v>
       </c>
@@ -4443,7 +4444,7 @@
       </c>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>202</v>
       </c>
@@ -4461,7 +4462,7 @@
       </c>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>203</v>
       </c>
@@ -4479,7 +4480,7 @@
       </c>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>204</v>
       </c>
@@ -4497,7 +4498,7 @@
       </c>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>205</v>
       </c>
@@ -4515,7 +4516,7 @@
       </c>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>206</v>
       </c>
@@ -4529,7 +4530,7 @@
       </c>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>207</v>
       </c>
@@ -4543,7 +4544,7 @@
       </c>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>208</v>
       </c>
@@ -4557,7 +4558,7 @@
       </c>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>209</v>
       </c>
@@ -4575,7 +4576,7 @@
       </c>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>210</v>
       </c>
@@ -4593,7 +4594,7 @@
       </c>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>211</v>
       </c>
@@ -4611,7 +4612,7 @@
       </c>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>212</v>
       </c>
@@ -4629,7 +4630,7 @@
       </c>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>213</v>
       </c>
@@ -4647,7 +4648,7 @@
       </c>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>214</v>
       </c>
@@ -4665,7 +4666,7 @@
       </c>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>215</v>
       </c>
@@ -4683,7 +4684,7 @@
       </c>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>216</v>
       </c>
@@ -4699,7 +4700,7 @@
       </c>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>217</v>
       </c>
@@ -4715,7 +4716,7 @@
       </c>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>218</v>
       </c>
@@ -4733,7 +4734,7 @@
       </c>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>221</v>
       </c>
@@ -4751,7 +4752,7 @@
       </c>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>225</v>
       </c>
@@ -4769,7 +4770,7 @@
       </c>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>228</v>
       </c>
@@ -4787,7 +4788,7 @@
       </c>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>230</v>
       </c>
@@ -4805,7 +4806,7 @@
       </c>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>233</v>
       </c>
@@ -4823,7 +4824,7 @@
       </c>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>236</v>
       </c>
@@ -4841,7 +4842,7 @@
       </c>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>239</v>
       </c>
@@ -4859,7 +4860,7 @@
       </c>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>242</v>
       </c>
@@ -4877,7 +4878,7 @@
       </c>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>245</v>
       </c>
@@ -4895,7 +4896,7 @@
       </c>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>248</v>
       </c>
@@ -4911,7 +4912,7 @@
       </c>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>250</v>
       </c>
@@ -4929,7 +4930,7 @@
       </c>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>253</v>
       </c>
@@ -4947,7 +4948,7 @@
       </c>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>256</v>
       </c>
@@ -4965,7 +4966,7 @@
       </c>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>259</v>
       </c>
@@ -4983,7 +4984,7 @@
       </c>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>262</v>
       </c>
@@ -5001,7 +5002,7 @@
       </c>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>266</v>
       </c>
@@ -5019,7 +5020,7 @@
       </c>
       <c r="F105" s="2"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>269</v>
       </c>
@@ -5037,7 +5038,7 @@
       </c>
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>274</v>
       </c>
@@ -5053,7 +5054,7 @@
       </c>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>277</v>
       </c>
@@ -5071,7 +5072,7 @@
       </c>
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>281</v>
       </c>
@@ -5089,7 +5090,7 @@
       </c>
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>284</v>
       </c>
@@ -5107,7 +5108,7 @@
       </c>
       <c r="F110" s="2"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>287</v>
       </c>
@@ -5125,7 +5126,7 @@
       </c>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>290</v>
       </c>
@@ -5143,7 +5144,7 @@
       </c>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>293</v>
       </c>
@@ -5161,7 +5162,7 @@
       </c>
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>296</v>
       </c>
@@ -5179,7 +5180,7 @@
       </c>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>299</v>
       </c>
@@ -5197,7 +5198,7 @@
       </c>
       <c r="F115" s="2"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>302</v>
       </c>
@@ -5215,7 +5216,7 @@
       </c>
       <c r="F116" s="2"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>305</v>
       </c>
@@ -5233,7 +5234,7 @@
       </c>
       <c r="F117" s="2"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>308</v>
       </c>
@@ -5251,7 +5252,7 @@
       </c>
       <c r="F118" s="2"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>311</v>
       </c>
@@ -5267,7 +5268,7 @@
       </c>
       <c r="F119" s="2"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>314</v>
       </c>
@@ -5285,7 +5286,7 @@
       </c>
       <c r="F120" s="2"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>317</v>
       </c>
@@ -5299,7 +5300,7 @@
       </c>
       <c r="F121" s="2"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>318</v>
       </c>
@@ -5315,7 +5316,7 @@
       </c>
       <c r="F122" s="2"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>320</v>
       </c>
@@ -5331,7 +5332,7 @@
       </c>
       <c r="F123" s="2"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>322</v>
       </c>
@@ -5345,7 +5346,7 @@
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>324</v>
       </c>
@@ -5361,7 +5362,7 @@
       </c>
       <c r="F125" s="2"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>326</v>
       </c>
@@ -5377,7 +5378,7 @@
       </c>
       <c r="F126" s="2"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>328</v>
       </c>
@@ -5393,7 +5394,7 @@
       </c>
       <c r="F127" s="2"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>330</v>
       </c>
@@ -5409,7 +5410,7 @@
       </c>
       <c r="F128" s="2"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>332</v>
       </c>
@@ -5425,7 +5426,7 @@
       </c>
       <c r="F129" s="2"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>334</v>
       </c>
@@ -5441,7 +5442,7 @@
       </c>
       <c r="F130" s="2"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>336</v>
       </c>
@@ -5457,7 +5458,7 @@
       </c>
       <c r="F131" s="2"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>338</v>
       </c>
@@ -5473,7 +5474,7 @@
       </c>
       <c r="F132" s="2"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>340</v>
       </c>
@@ -5489,7 +5490,7 @@
       </c>
       <c r="F133" s="2"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>342</v>
       </c>
@@ -5505,7 +5506,7 @@
       </c>
       <c r="F134" s="2"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>344</v>
       </c>
@@ -5521,7 +5522,7 @@
       </c>
       <c r="F135" s="2"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>346</v>
       </c>
@@ -5537,7 +5538,7 @@
       </c>
       <c r="F136" s="2"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>348</v>
       </c>
@@ -5555,7 +5556,7 @@
       </c>
       <c r="F137" s="2"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>351</v>
       </c>
@@ -5571,7 +5572,7 @@
       </c>
       <c r="F138" s="2"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>353</v>
       </c>
@@ -5587,7 +5588,7 @@
       </c>
       <c r="F139" s="2"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>355</v>
       </c>
@@ -5603,7 +5604,7 @@
       </c>
       <c r="F140" s="2"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>356</v>
       </c>
@@ -5619,7 +5620,7 @@
       </c>
       <c r="F141" s="2"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>357</v>
       </c>
@@ -5637,7 +5638,7 @@
       </c>
       <c r="F142" s="2"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>360</v>
       </c>
@@ -5655,7 +5656,7 @@
       </c>
       <c r="F143" s="2"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>363</v>
       </c>
@@ -5673,7 +5674,7 @@
       </c>
       <c r="F144" s="2"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>367</v>
       </c>
@@ -5691,7 +5692,7 @@
       </c>
       <c r="F145" s="2"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>368</v>
       </c>
@@ -5709,7 +5710,7 @@
       </c>
       <c r="F146" s="2"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>369</v>
       </c>
@@ -5727,7 +5728,7 @@
       </c>
       <c r="F147" s="2"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>373</v>
       </c>
@@ -5745,7 +5746,7 @@
       </c>
       <c r="F148" s="2"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>376</v>
       </c>
@@ -5763,7 +5764,7 @@
       </c>
       <c r="F149" s="2"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>378</v>
       </c>
@@ -5781,7 +5782,7 @@
       </c>
       <c r="F150" s="2"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>380</v>
       </c>
@@ -5799,7 +5800,7 @@
       </c>
       <c r="F151" s="2"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>382</v>
       </c>
@@ -5817,7 +5818,7 @@
       </c>
       <c r="F152" s="2"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>385</v>
       </c>
@@ -5835,7 +5836,7 @@
       </c>
       <c r="F153" s="2"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>388</v>
       </c>
@@ -5853,7 +5854,7 @@
       </c>
       <c r="F154" s="2"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>391</v>
       </c>
@@ -5871,7 +5872,7 @@
       </c>
       <c r="F155" s="2"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>392</v>
       </c>
@@ -5889,7 +5890,7 @@
       </c>
       <c r="F156" s="2"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>395</v>
       </c>
@@ -5907,7 +5908,7 @@
       </c>
       <c r="F157" s="2"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>396</v>
       </c>
@@ -5925,7 +5926,7 @@
       </c>
       <c r="F158" s="2"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>397</v>
       </c>
@@ -5943,7 +5944,7 @@
       </c>
       <c r="F159" s="2"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>398</v>
       </c>
@@ -5961,7 +5962,7 @@
       </c>
       <c r="F160" s="2"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>399</v>
       </c>
@@ -5979,7 +5980,7 @@
       </c>
       <c r="F161" s="2"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>400</v>
       </c>
@@ -5997,7 +5998,7 @@
       </c>
       <c r="F162" s="2"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>401</v>
       </c>
@@ -6015,7 +6016,7 @@
       </c>
       <c r="F163" s="2"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>402</v>
       </c>
@@ -6033,7 +6034,7 @@
       </c>
       <c r="F164" s="2"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>403</v>
       </c>
@@ -6051,7 +6052,7 @@
       </c>
       <c r="F165" s="2"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>406</v>
       </c>
@@ -6069,7 +6070,7 @@
       </c>
       <c r="F166" s="2"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>407</v>
       </c>
@@ -6087,7 +6088,7 @@
       </c>
       <c r="F167" s="2"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>408</v>
       </c>
@@ -6105,7 +6106,7 @@
       </c>
       <c r="F168" s="2"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>409</v>
       </c>
@@ -6123,7 +6124,7 @@
       </c>
       <c r="F169" s="2"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>410</v>
       </c>
@@ -6141,7 +6142,7 @@
       </c>
       <c r="F170" s="2"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>411</v>
       </c>
@@ -6159,7 +6160,7 @@
       </c>
       <c r="F171" s="2"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>412</v>
       </c>
@@ -6177,7 +6178,7 @@
       </c>
       <c r="F172" s="2"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>415</v>
       </c>
@@ -6195,7 +6196,7 @@
       </c>
       <c r="F173" s="2"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>417</v>
       </c>
@@ -6213,7 +6214,7 @@
       </c>
       <c r="F174" s="2"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>418</v>
       </c>
@@ -6231,7 +6232,7 @@
       </c>
       <c r="F175" s="2"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>420</v>
       </c>
@@ -6249,7 +6250,7 @@
       </c>
       <c r="F176" s="2"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>421</v>
       </c>
@@ -6267,7 +6268,7 @@
       </c>
       <c r="F177" s="2"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>422</v>
       </c>
@@ -6285,7 +6286,7 @@
       </c>
       <c r="F178" s="2"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>423</v>
       </c>
@@ -6303,7 +6304,7 @@
       </c>
       <c r="F179" s="2"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>424</v>
       </c>
@@ -6321,7 +6322,7 @@
       </c>
       <c r="F180" s="2"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>425</v>
       </c>
@@ -6339,7 +6340,7 @@
       </c>
       <c r="F181" s="2"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>427</v>
       </c>
@@ -6357,7 +6358,7 @@
       </c>
       <c r="F182" s="2"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>428</v>
       </c>
@@ -6375,7 +6376,7 @@
       </c>
       <c r="F183" s="2"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>429</v>
       </c>
@@ -6393,7 +6394,7 @@
       </c>
       <c r="F184" s="2"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>430</v>
       </c>
@@ -6411,7 +6412,7 @@
       </c>
       <c r="F185" s="2"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>431</v>
       </c>
@@ -6425,7 +6426,7 @@
       </c>
       <c r="F186" s="2"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>432</v>
       </c>
@@ -6439,7 +6440,7 @@
       </c>
       <c r="F187" s="2"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>433</v>
       </c>
@@ -6453,7 +6454,7 @@
       </c>
       <c r="F188" s="2"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>434</v>
       </c>
@@ -6471,7 +6472,7 @@
       </c>
       <c r="F189" s="2"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>435</v>
       </c>
@@ -6489,7 +6490,7 @@
       </c>
       <c r="F190" s="2"/>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>436</v>
       </c>
@@ -6507,7 +6508,7 @@
       </c>
       <c r="F191" s="2"/>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>437</v>
       </c>
@@ -6525,7 +6526,7 @@
       </c>
       <c r="F192" s="2"/>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>438</v>
       </c>
@@ -6543,7 +6544,7 @@
       </c>
       <c r="F193" s="2"/>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>439</v>
       </c>
@@ -6561,7 +6562,7 @@
       </c>
       <c r="F194" s="2"/>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>440</v>
       </c>
@@ -6579,7 +6580,7 @@
       </c>
       <c r="F195" s="2"/>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>441</v>
       </c>
@@ -6597,7 +6598,7 @@
       </c>
       <c r="F196" s="2"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>445</v>
       </c>
@@ -6615,7 +6616,7 @@
       </c>
       <c r="F197" s="2"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>448</v>
       </c>
@@ -6633,7 +6634,7 @@
       </c>
       <c r="F198" s="2"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>451</v>
       </c>
@@ -6651,7 +6652,7 @@
       </c>
       <c r="F199" s="2"/>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>454</v>
       </c>
@@ -6669,7 +6670,7 @@
       </c>
       <c r="F200" s="2"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>458</v>
       </c>
@@ -6685,7 +6686,7 @@
       </c>
       <c r="F201" s="2"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>460</v>
       </c>
@@ -6703,7 +6704,7 @@
       </c>
       <c r="F202" s="2"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>463</v>
       </c>
@@ -6721,7 +6722,7 @@
       </c>
       <c r="F203" s="2"/>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>466</v>
       </c>
@@ -6739,7 +6740,7 @@
       </c>
       <c r="F204" s="2"/>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>468</v>
       </c>
@@ -6755,7 +6756,7 @@
       </c>
       <c r="F205" s="2"/>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>470</v>
       </c>
@@ -6773,7 +6774,7 @@
       </c>
       <c r="F206" s="2"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>473</v>
       </c>
@@ -6791,7 +6792,7 @@
       </c>
       <c r="F207" s="2"/>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>476</v>
       </c>
@@ -6809,7 +6810,7 @@
       </c>
       <c r="F208" s="2"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>479</v>
       </c>
@@ -6827,7 +6828,7 @@
       </c>
       <c r="F209" s="2"/>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>483</v>
       </c>
@@ -6845,7 +6846,7 @@
       </c>
       <c r="F210" s="2"/>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>486</v>
       </c>
@@ -6863,7 +6864,7 @@
       </c>
       <c r="F211" s="2"/>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>489</v>
       </c>
@@ -6881,7 +6882,7 @@
       </c>
       <c r="F212" s="2"/>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>492</v>
       </c>
@@ -6899,7 +6900,7 @@
       </c>
       <c r="F213" s="2"/>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>495</v>
       </c>
@@ -6917,7 +6918,7 @@
       </c>
       <c r="F214" s="2"/>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>498</v>
       </c>
@@ -6935,7 +6936,7 @@
       </c>
       <c r="F215" s="2"/>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>501</v>
       </c>
@@ -6953,7 +6954,7 @@
       </c>
       <c r="F216" s="2"/>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>505</v>
       </c>
@@ -6967,7 +6968,7 @@
       </c>
       <c r="F217" s="2"/>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>507</v>
       </c>
@@ -6983,7 +6984,7 @@
       </c>
       <c r="F218" s="2"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>509</v>
       </c>
@@ -6999,7 +7000,7 @@
       </c>
       <c r="F219" s="2"/>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>511</v>
       </c>
@@ -7015,7 +7016,7 @@
       </c>
       <c r="F220" s="2"/>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>513</v>
       </c>
@@ -7031,7 +7032,7 @@
       </c>
       <c r="F221" s="2"/>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>515</v>
       </c>
@@ -7047,7 +7048,7 @@
       </c>
       <c r="F222" s="2"/>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>517</v>
       </c>
@@ -7063,7 +7064,7 @@
       </c>
       <c r="F223" s="2"/>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>519</v>
       </c>
@@ -7079,7 +7080,7 @@
       </c>
       <c r="F224" s="2"/>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>521</v>
       </c>
@@ -7097,7 +7098,7 @@
       </c>
       <c r="F225" s="2"/>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>525</v>
       </c>
@@ -7113,7 +7114,7 @@
       </c>
       <c r="F226" s="2"/>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>527</v>
       </c>
@@ -7129,7 +7130,7 @@
       </c>
       <c r="F227" s="2"/>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>529</v>
       </c>
@@ -7145,7 +7146,7 @@
       </c>
       <c r="F228" s="2"/>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>531</v>
       </c>
@@ -7161,7 +7162,7 @@
       </c>
       <c r="F229" s="2"/>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>533</v>
       </c>
@@ -7177,7 +7178,7 @@
       </c>
       <c r="F230" s="2"/>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>535</v>
       </c>
@@ -7195,7 +7196,7 @@
       </c>
       <c r="F231" s="2"/>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>538</v>
       </c>
@@ -7213,7 +7214,7 @@
       </c>
       <c r="F232" s="2"/>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>542</v>
       </c>
@@ -7229,7 +7230,7 @@
       </c>
       <c r="F233" s="2"/>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>543</v>
       </c>
@@ -7245,7 +7246,7 @@
       </c>
       <c r="F234" s="2"/>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>545</v>
       </c>
@@ -7261,7 +7262,7 @@
       </c>
       <c r="F235" s="2"/>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>547</v>
       </c>
@@ -7277,7 +7278,7 @@
       </c>
       <c r="F236" s="2"/>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>549</v>
       </c>
@@ -7293,7 +7294,7 @@
       </c>
       <c r="F237" s="2"/>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>551</v>
       </c>
@@ -7311,7 +7312,7 @@
       </c>
       <c r="F238" s="2"/>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>555</v>
       </c>
@@ -7327,7 +7328,7 @@
       </c>
       <c r="F239" s="2"/>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>557</v>
       </c>
@@ -7341,7 +7342,7 @@
       </c>
       <c r="F240" s="2"/>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>558</v>
       </c>
@@ -7359,7 +7360,7 @@
       </c>
       <c r="F241" s="2"/>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>561</v>
       </c>
@@ -7377,7 +7378,7 @@
       </c>
       <c r="F242" s="2"/>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>565</v>
       </c>
@@ -7393,7 +7394,7 @@
       </c>
       <c r="F243" s="2"/>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>567</v>
       </c>
@@ -7411,7 +7412,7 @@
       </c>
       <c r="F244" s="2"/>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>570</v>
       </c>
@@ -7427,7 +7428,7 @@
       </c>
       <c r="F245" s="2"/>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>572</v>
       </c>
@@ -7445,7 +7446,7 @@
       </c>
       <c r="F246" s="2"/>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>574</v>
       </c>
@@ -7463,7 +7464,7 @@
       </c>
       <c r="F247" s="2"/>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>577</v>
       </c>
@@ -7481,7 +7482,7 @@
       </c>
       <c r="F248" s="2"/>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>580</v>
       </c>
@@ -7499,7 +7500,7 @@
       </c>
       <c r="F249" s="2"/>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>583</v>
       </c>
@@ -7513,7 +7514,7 @@
       </c>
       <c r="F250" s="2"/>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>585</v>
       </c>
@@ -7527,7 +7528,7 @@
       </c>
       <c r="F251" s="2"/>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>586</v>
       </c>
@@ -7541,7 +7542,7 @@
       </c>
       <c r="F252" s="2"/>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>588</v>
       </c>
@@ -7555,7 +7556,7 @@
       </c>
       <c r="F253" s="2"/>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>589</v>
       </c>
@@ -7573,7 +7574,7 @@
       </c>
       <c r="F254" s="2"/>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>592</v>
       </c>
@@ -7587,7 +7588,7 @@
       </c>
       <c r="F255" s="2"/>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>593</v>
       </c>
@@ -7601,7 +7602,7 @@
       </c>
       <c r="F256" s="2"/>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>594</v>
       </c>
@@ -7615,7 +7616,7 @@
       </c>
       <c r="F257" s="2"/>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>595</v>
       </c>
@@ -7629,7 +7630,7 @@
       </c>
       <c r="F258" s="2"/>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>596</v>
       </c>
@@ -7645,7 +7646,7 @@
       </c>
       <c r="F259" s="2"/>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>598</v>
       </c>
@@ -7663,7 +7664,7 @@
       </c>
       <c r="F260" s="2"/>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>600</v>
       </c>
@@ -7679,7 +7680,7 @@
       </c>
       <c r="F261" s="2"/>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>602</v>
       </c>
@@ -7697,7 +7698,7 @@
       </c>
       <c r="F262" s="2"/>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>605</v>
       </c>
@@ -7715,7 +7716,7 @@
       </c>
       <c r="F263" s="2"/>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>607</v>
       </c>
@@ -7733,7 +7734,7 @@
       </c>
       <c r="F264" s="2"/>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>609</v>
       </c>
@@ -7751,7 +7752,7 @@
       </c>
       <c r="F265" s="2"/>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>611</v>
       </c>
@@ -7769,7 +7770,7 @@
       </c>
       <c r="F266" s="2"/>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>613</v>
       </c>
@@ -7785,7 +7786,7 @@
       </c>
       <c r="F267" s="2"/>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>617</v>
       </c>
@@ -7803,7 +7804,7 @@
       </c>
       <c r="F268" s="2"/>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>620</v>
       </c>
@@ -7821,7 +7822,7 @@
       </c>
       <c r="F269" s="2"/>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>621</v>
       </c>
@@ -7839,7 +7840,7 @@
       </c>
       <c r="F270" s="2"/>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>622</v>
       </c>
@@ -7857,7 +7858,7 @@
       </c>
       <c r="F271" s="2"/>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>623</v>
       </c>
@@ -7875,7 +7876,7 @@
       </c>
       <c r="F272" s="2"/>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>624</v>
       </c>
@@ -7893,7 +7894,7 @@
       </c>
       <c r="F273" s="2"/>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>625</v>
       </c>
@@ -7911,7 +7912,7 @@
       </c>
       <c r="F274" s="2"/>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>626</v>
       </c>
@@ -7929,7 +7930,7 @@
       </c>
       <c r="F275" s="2"/>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>629</v>
       </c>
@@ -7947,7 +7948,7 @@
       </c>
       <c r="F276" s="2"/>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>632</v>
       </c>
@@ -7965,7 +7966,7 @@
       </c>
       <c r="F277" s="2"/>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>635</v>
       </c>
@@ -7983,7 +7984,7 @@
       </c>
       <c r="F278" s="2"/>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>638</v>
       </c>
@@ -7999,7 +8000,7 @@
       </c>
       <c r="F279" s="2"/>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>641</v>
       </c>
@@ -8017,7 +8018,7 @@
       </c>
       <c r="F280" s="2"/>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>645</v>
       </c>
@@ -8035,7 +8036,7 @@
       </c>
       <c r="F281" s="2"/>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>648</v>
       </c>
@@ -8053,7 +8054,7 @@
       </c>
       <c r="F282" s="2"/>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>650</v>
       </c>
@@ -8071,7 +8072,7 @@
       </c>
       <c r="F283" s="2"/>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
         <v>653</v>
       </c>
@@ -8089,7 +8090,7 @@
       </c>
       <c r="F284" s="2"/>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>656</v>
       </c>
@@ -8107,7 +8108,7 @@
       </c>
       <c r="F285" s="2"/>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>659</v>
       </c>
@@ -8125,7 +8126,7 @@
       </c>
       <c r="F286" s="2"/>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>662</v>
       </c>
@@ -8143,7 +8144,7 @@
       </c>
       <c r="F287" s="2"/>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>665</v>
       </c>
@@ -8161,7 +8162,7 @@
       </c>
       <c r="F288" s="2"/>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>668</v>
       </c>
@@ -8179,7 +8180,7 @@
       </c>
       <c r="F289" s="2"/>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
         <v>670</v>
       </c>
@@ -8195,7 +8196,7 @@
       </c>
       <c r="F290" s="2"/>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
         <v>673</v>
       </c>
@@ -8211,7 +8212,7 @@
       </c>
       <c r="F291" s="2"/>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
         <v>676</v>
       </c>
@@ -8229,7 +8230,7 @@
       </c>
       <c r="F292" s="2"/>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
         <v>681</v>
       </c>
@@ -8245,7 +8246,7 @@
       </c>
       <c r="F293" s="2"/>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
         <v>683</v>
       </c>
@@ -8261,7 +8262,7 @@
       </c>
       <c r="F294" s="2"/>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>684</v>
       </c>
@@ -8277,7 +8278,7 @@
       </c>
       <c r="F295" s="2"/>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
         <v>686</v>
       </c>
@@ -8293,7 +8294,7 @@
       </c>
       <c r="F296" s="2"/>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
         <v>687</v>
       </c>
@@ -8309,7 +8310,7 @@
       </c>
       <c r="F297" s="2"/>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
         <v>690</v>
       </c>
@@ -8325,7 +8326,7 @@
       </c>
       <c r="F298" s="2"/>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
         <v>692</v>
       </c>
@@ -8341,7 +8342,7 @@
       </c>
       <c r="F299" s="2"/>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
         <v>694</v>
       </c>
@@ -8357,7 +8358,7 @@
       </c>
       <c r="F300" s="2"/>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
         <v>696</v>
       </c>
@@ -8373,7 +8374,7 @@
       </c>
       <c r="F301" s="2"/>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
         <v>697</v>
       </c>
@@ -8389,7 +8390,7 @@
       </c>
       <c r="F302" s="2"/>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
         <v>698</v>
       </c>
@@ -8403,7 +8404,7 @@
       <c r="E303" s="2"/>
       <c r="F303" s="2"/>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
         <v>700</v>
       </c>
@@ -8419,7 +8420,7 @@
       </c>
       <c r="F304" s="2"/>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
         <v>702</v>
       </c>
@@ -8433,7 +8434,7 @@
       </c>
       <c r="F305" s="2"/>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
         <v>704</v>
       </c>
@@ -8449,7 +8450,7 @@
       </c>
       <c r="F306" s="2"/>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
         <v>706</v>
       </c>
@@ -8465,7 +8466,7 @@
       </c>
       <c r="F307" s="2"/>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
         <v>708</v>
       </c>
@@ -8481,7 +8482,7 @@
       </c>
       <c r="F308" s="2"/>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
         <v>710</v>
       </c>
@@ -8497,7 +8498,7 @@
       </c>
       <c r="F309" s="2"/>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
         <v>712</v>
       </c>
@@ -8513,7 +8514,7 @@
       </c>
       <c r="F310" s="2"/>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
         <v>715</v>
       </c>
@@ -8529,7 +8530,7 @@
       </c>
       <c r="F311" s="2"/>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
         <v>718</v>
       </c>
@@ -8545,7 +8546,7 @@
       </c>
       <c r="F312" s="2"/>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
         <v>719</v>
       </c>
@@ -8563,7 +8564,7 @@
       </c>
       <c r="F313" s="2"/>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
         <v>722</v>
       </c>
@@ -8579,7 +8580,7 @@
       </c>
       <c r="F314" s="2"/>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
         <v>723</v>
       </c>
@@ -8595,7 +8596,7 @@
       </c>
       <c r="F315" s="2"/>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
         <v>725</v>
       </c>
@@ -8613,7 +8614,7 @@
       </c>
       <c r="F316" s="2"/>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
         <v>728</v>
       </c>
@@ -8631,7 +8632,7 @@
       </c>
       <c r="F317" s="2"/>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
         <v>730</v>
       </c>
@@ -8647,7 +8648,7 @@
       </c>
       <c r="F318" s="2"/>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
         <v>731</v>
       </c>
@@ -8665,7 +8666,7 @@
       </c>
       <c r="F319" s="2"/>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
         <v>734</v>
       </c>
@@ -8679,7 +8680,7 @@
       <c r="E320" s="2"/>
       <c r="F320" s="2"/>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
         <v>735</v>
       </c>
@@ -8693,7 +8694,7 @@
       </c>
       <c r="F321" s="2"/>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
         <v>737</v>
       </c>
@@ -8707,7 +8708,7 @@
       </c>
       <c r="F322" s="2"/>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
         <v>739</v>
       </c>
@@ -8725,7 +8726,7 @@
       </c>
       <c r="F323" s="2"/>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
         <v>742</v>
       </c>
@@ -8741,7 +8742,7 @@
       </c>
       <c r="F324" s="2"/>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
         <v>744</v>
       </c>
@@ -8757,7 +8758,7 @@
       </c>
       <c r="F325" s="2"/>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
         <v>747</v>
       </c>
@@ -8775,7 +8776,7 @@
       </c>
       <c r="F326" s="2"/>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
         <v>750</v>
       </c>
@@ -8793,7 +8794,7 @@
       </c>
       <c r="F327" s="2"/>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
         <v>753</v>
       </c>
@@ -8809,7 +8810,7 @@
       </c>
       <c r="F328" s="2"/>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
         <v>756</v>
       </c>
@@ -8827,7 +8828,7 @@
       </c>
       <c r="F329" s="2"/>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
         <v>759</v>
       </c>
@@ -8843,7 +8844,7 @@
       </c>
       <c r="F330" s="2"/>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
         <v>760</v>
       </c>
@@ -8861,7 +8862,7 @@
       </c>
       <c r="F331" s="2"/>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
         <v>762</v>
       </c>
@@ -8877,7 +8878,7 @@
       </c>
       <c r="F332" s="2"/>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
         <v>764</v>
       </c>
@@ -8893,7 +8894,7 @@
       </c>
       <c r="F333" s="2"/>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
         <v>766</v>
       </c>
@@ -8911,7 +8912,7 @@
       </c>
       <c r="F334" s="2"/>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
         <v>770</v>
       </c>
@@ -8927,7 +8928,7 @@
       </c>
       <c r="F335" s="2"/>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
         <v>771</v>
       </c>
@@ -8941,7 +8942,7 @@
       <c r="E336" s="2"/>
       <c r="F336" s="2"/>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
         <v>772</v>
       </c>
@@ -8957,7 +8958,7 @@
       </c>
       <c r="F337" s="2"/>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
         <v>774</v>
       </c>
@@ -8971,7 +8972,7 @@
       </c>
       <c r="F338" s="2"/>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
         <v>775</v>
       </c>
@@ -8985,7 +8986,7 @@
       </c>
       <c r="F339" s="2"/>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
         <v>776</v>
       </c>
@@ -9001,7 +9002,7 @@
       </c>
       <c r="F340" s="2"/>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
         <v>778</v>
       </c>
@@ -9017,7 +9018,7 @@
       </c>
       <c r="F341" s="2"/>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
         <v>782</v>
       </c>
@@ -9033,7 +9034,7 @@
       </c>
       <c r="F342" s="2"/>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
         <v>784</v>
       </c>
@@ -9047,7 +9048,7 @@
       </c>
       <c r="F343" s="2"/>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
         <v>786</v>
       </c>
@@ -9061,7 +9062,7 @@
       </c>
       <c r="F344" s="2"/>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
         <v>788</v>
       </c>
@@ -9075,7 +9076,7 @@
       </c>
       <c r="F345" s="2"/>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
         <v>790</v>
       </c>
@@ -9091,7 +9092,7 @@
       </c>
       <c r="F346" s="2"/>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
         <v>792</v>
       </c>
@@ -9105,7 +9106,7 @@
       </c>
       <c r="F347" s="2"/>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
         <v>794</v>
       </c>
@@ -9119,7 +9120,7 @@
       </c>
       <c r="F348" s="2"/>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
         <v>796</v>
       </c>
@@ -9133,7 +9134,7 @@
       </c>
       <c r="F349" s="2"/>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
         <v>798</v>
       </c>
@@ -9147,7 +9148,7 @@
       </c>
       <c r="F350" s="2"/>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
         <v>800</v>
       </c>
@@ -9161,7 +9162,7 @@
       </c>
       <c r="F351" s="2"/>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
         <v>802</v>
       </c>
@@ -9175,7 +9176,7 @@
       </c>
       <c r="F352" s="2"/>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
         <v>804</v>
       </c>
@@ -9189,7 +9190,7 @@
       </c>
       <c r="F353" s="2"/>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
         <v>806</v>
       </c>
@@ -9203,7 +9204,7 @@
       </c>
       <c r="F354" s="2"/>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
         <v>808</v>
       </c>
@@ -9217,7 +9218,7 @@
       </c>
       <c r="F355" s="2"/>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
         <v>810</v>
       </c>
@@ -9231,7 +9232,7 @@
       </c>
       <c r="F356" s="2"/>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
         <v>812</v>
       </c>
@@ -9245,7 +9246,7 @@
       </c>
       <c r="F357" s="2"/>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
         <v>814</v>
       </c>
@@ -9259,7 +9260,7 @@
       </c>
       <c r="F358" s="2"/>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
         <v>816</v>
       </c>
@@ -9277,7 +9278,7 @@
       </c>
       <c r="F359" s="2"/>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
         <v>820</v>
       </c>
@@ -9291,7 +9292,7 @@
       </c>
       <c r="F360" s="2"/>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
         <v>822</v>
       </c>
@@ -9307,7 +9308,7 @@
       </c>
       <c r="F361" s="2"/>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
         <v>824</v>
       </c>
@@ -9323,7 +9324,7 @@
       </c>
       <c r="F362" s="2"/>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
         <v>826</v>
       </c>
@@ -9339,7 +9340,7 @@
       </c>
       <c r="F363" s="2"/>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
         <v>829</v>
       </c>
@@ -9353,7 +9354,7 @@
       <c r="E364" s="2"/>
       <c r="F364" s="2"/>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
         <v>830</v>
       </c>
@@ -9367,7 +9368,7 @@
       </c>
       <c r="F365" s="2"/>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
         <v>831</v>
       </c>
@@ -9383,7 +9384,7 @@
       </c>
       <c r="F366" s="2"/>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
         <v>833</v>
       </c>
@@ -9399,7 +9400,7 @@
       </c>
       <c r="F367" s="2"/>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
         <v>834</v>
       </c>
@@ -9417,7 +9418,7 @@
       </c>
       <c r="F368" s="2"/>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
         <v>836</v>
       </c>
@@ -9433,7 +9434,7 @@
       </c>
       <c r="F369" s="2"/>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
         <v>837</v>
       </c>
@@ -9449,7 +9450,7 @@
       </c>
       <c r="F370" s="2"/>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
         <v>838</v>
       </c>
@@ -9467,7 +9468,7 @@
       </c>
       <c r="F371" s="2"/>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
         <v>840</v>
       </c>
@@ -9481,7 +9482,7 @@
       <c r="E372" s="2"/>
       <c r="F372" s="2"/>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
         <v>841</v>
       </c>
@@ -9497,7 +9498,7 @@
       </c>
       <c r="F373" s="2"/>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
         <v>843</v>
       </c>
@@ -9515,7 +9516,7 @@
       </c>
       <c r="F374" s="2"/>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
         <v>845</v>
       </c>
@@ -9529,7 +9530,7 @@
       <c r="E375" s="2"/>
       <c r="F375" s="2"/>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
         <v>846</v>
       </c>
@@ -9543,7 +9544,7 @@
       </c>
       <c r="F376" s="2"/>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
         <v>847</v>
       </c>
@@ -9557,7 +9558,7 @@
       </c>
       <c r="F377" s="2"/>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
         <v>848</v>
       </c>
@@ -9573,7 +9574,7 @@
       <c r="E378" s="2"/>
       <c r="F378" s="2"/>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
         <v>850</v>
       </c>
@@ -9589,7 +9590,7 @@
       </c>
       <c r="F379" s="2"/>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
         <v>851</v>
       </c>
@@ -9605,7 +9606,7 @@
       </c>
       <c r="F380" s="2"/>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
         <v>854</v>
       </c>
@@ -9621,7 +9622,7 @@
       </c>
       <c r="F381" s="2"/>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
         <v>855</v>
       </c>
@@ -9639,7 +9640,7 @@
       </c>
       <c r="F382" s="2"/>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
         <v>856</v>
       </c>
@@ -9655,7 +9656,7 @@
       </c>
       <c r="F383" s="2"/>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
         <v>857</v>
       </c>
@@ -9671,7 +9672,7 @@
       </c>
       <c r="F384" s="2"/>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
         <v>858</v>
       </c>
@@ -9689,7 +9690,7 @@
       </c>
       <c r="F385" s="2"/>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
         <v>859</v>
       </c>
@@ -9703,7 +9704,7 @@
       <c r="E386" s="2"/>
       <c r="F386" s="2"/>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
         <v>860</v>
       </c>
@@ -9719,7 +9720,7 @@
       </c>
       <c r="F387" s="2"/>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" s="2" t="s">
         <v>861</v>
       </c>
@@ -9735,7 +9736,7 @@
       </c>
       <c r="F388" s="2"/>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" s="2" t="s">
         <v>862</v>
       </c>
@@ -9753,7 +9754,7 @@
       </c>
       <c r="F389" s="2"/>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390" s="2" t="s">
         <v>863</v>
       </c>
@@ -9767,7 +9768,7 @@
       <c r="E390" s="2"/>
       <c r="F390" s="2"/>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" s="2" t="s">
         <v>864</v>
       </c>
@@ -9781,7 +9782,7 @@
       </c>
       <c r="F391" s="2"/>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" s="2" t="s">
         <v>865</v>
       </c>
@@ -9795,7 +9796,7 @@
       </c>
       <c r="F392" s="2"/>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" s="2" t="s">
         <v>866</v>
       </c>
@@ -9811,7 +9812,7 @@
       </c>
       <c r="F393" s="2"/>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A394" s="2" t="s">
         <v>867</v>
       </c>
@@ -9827,7 +9828,7 @@
       </c>
       <c r="F394" s="2"/>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A395" s="2" t="s">
         <v>870</v>
       </c>
@@ -9845,7 +9846,7 @@
       </c>
       <c r="F395" s="2"/>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396" s="4" t="s">
         <v>874</v>
       </c>
@@ -9863,7 +9864,7 @@
       </c>
       <c r="F396" s="2"/>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" s="4" t="s">
         <v>877</v>
       </c>
@@ -9881,7 +9882,7 @@
       </c>
       <c r="F397" s="2"/>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" s="4" t="s">
         <v>880</v>
       </c>
@@ -9899,7 +9900,7 @@
       </c>
       <c r="F398" s="2"/>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399" s="4" t="s">
         <v>883</v>
       </c>
@@ -9917,7 +9918,7 @@
       </c>
       <c r="F399" s="2"/>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A400" s="4" t="s">
         <v>886</v>
       </c>
@@ -9933,7 +9934,7 @@
       </c>
       <c r="F400" s="2"/>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A401" s="4" t="s">
         <v>888</v>
       </c>
@@ -9949,7 +9950,7 @@
       </c>
       <c r="F401" s="2"/>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A402" s="4" t="s">
         <v>891</v>
       </c>
@@ -9965,7 +9966,7 @@
       </c>
       <c r="F402" s="2"/>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A403" s="4" t="s">
         <v>895</v>
       </c>
@@ -9981,7 +9982,7 @@
       </c>
       <c r="F403" s="2"/>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A404" s="4" t="s">
         <v>898</v>
       </c>
@@ -9997,7 +9998,7 @@
       </c>
       <c r="F404" s="2"/>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405" s="4" t="s">
         <v>901</v>
       </c>
@@ -10013,7 +10014,7 @@
       </c>
       <c r="F405" s="2"/>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" s="4" t="s">
         <v>904</v>
       </c>
@@ -10027,7 +10028,7 @@
       </c>
       <c r="F406" s="2"/>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407" s="4" t="s">
         <v>905</v>
       </c>
@@ -10043,7 +10044,7 @@
       </c>
       <c r="F407" s="2"/>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A408" s="4" t="s">
         <v>908</v>
       </c>
@@ -10059,7 +10060,7 @@
       </c>
       <c r="F408" s="2"/>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A409" s="4" t="s">
         <v>911</v>
       </c>
@@ -10075,7 +10076,7 @@
       </c>
       <c r="F409" s="2"/>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" s="4" t="s">
         <v>914</v>
       </c>
@@ -10091,7 +10092,7 @@
       </c>
       <c r="F410" s="2"/>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A411" s="4" t="s">
         <v>917</v>
       </c>
@@ -10109,7 +10110,7 @@
       </c>
       <c r="F411" s="2"/>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A412" s="4" t="s">
         <v>920</v>
       </c>
@@ -10127,7 +10128,7 @@
       </c>
       <c r="F412" s="2"/>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A413" s="4" t="s">
         <v>923</v>
       </c>
@@ -10145,7 +10146,7 @@
       </c>
       <c r="F413" s="2"/>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A414" s="4" t="s">
         <v>926</v>
       </c>
@@ -10163,7 +10164,7 @@
       </c>
       <c r="F414" s="2"/>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A415" s="4" t="s">
         <v>928</v>
       </c>
@@ -10190,21 +10191,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="81.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="81.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="24.5546875" customWidth="1"/>
     <col min="6" max="6" width="117" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10224,7 +10225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -10240,7 +10241,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -10258,7 +10259,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -10274,7 +10275,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -10290,7 +10291,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -10306,7 +10307,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -10324,7 +10325,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -10342,7 +10343,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
@@ -10360,7 +10361,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
@@ -10374,7 +10375,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
@@ -10392,7 +10393,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
@@ -10410,7 +10411,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
@@ -10428,7 +10429,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>48</v>
       </c>
@@ -10446,7 +10447,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>51</v>
       </c>
@@ -10464,7 +10465,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>54</v>
       </c>
@@ -10482,7 +10483,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>57</v>
       </c>
@@ -10500,7 +10501,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>60</v>
       </c>
@@ -10518,7 +10519,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>63</v>
       </c>
@@ -10536,7 +10537,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>66</v>
       </c>
@@ -10561,23 +10562,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F208"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="76.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10597,341 +10598,3377 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>874</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>479</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>875</v>
+        <v>480</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>876</v>
+        <v>481</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>482</v>
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>877</v>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>483</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>878</v>
+        <v>484</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>879</v>
+        <v>485</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>880</v>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>881</v>
+        <v>487</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>488</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>883</v>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>489</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>884</v>
+        <v>490</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>885</v>
+        <v>491</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>886</v>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>492</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>887</v>
-      </c>
-      <c r="C6" s="2"/>
+        <v>493</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>494</v>
+      </c>
       <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>887</v>
+        <v>12</v>
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>888</v>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>495</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>889</v>
+        <v>496</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>890</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>497</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="E7" s="2" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>891</v>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>498</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>892</v>
+        <v>499</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>893</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>500</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="E8" s="2" t="s">
-        <v>894</v>
+        <v>12</v>
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>895</v>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>896</v>
+        <v>502</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>897</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>503</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="E9" s="2" t="s">
-        <v>8</v>
+        <v>504</v>
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>898</v>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>505</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>899</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>900</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>8</v>
+        <v>142</v>
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2">
+        <v>0</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="2"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="2"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" s="2"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F69" s="2"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" s="2"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F71" s="2"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" s="2"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="F73" s="2"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" s="2"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="2"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="2"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="2"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="2"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="2"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="2"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F81" s="2"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F82" s="2"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="F83" s="2"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="F84" s="2"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="F85" s="2"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F86" s="2"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F87" s="2"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F88" s="2"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F89" s="2"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="F90" s="2"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F91" s="2"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F92" s="2"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93" s="2"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F94" s="2"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F95" s="2"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F97" s="2"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="F98" s="2"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F99" s="2"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" s="2"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" s="2"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F102" s="2"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="F103" s="2"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="F104" s="2"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" s="2"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F106" s="2"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F107" s="2"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F108" s="2"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109" s="2"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110" s="2"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F111" s="2"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F112" s="2"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F114" s="2"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="F115" s="2"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F116" s="2"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F117" s="2"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="F118" s="2"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F119" s="2"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F120" s="2"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="F121" s="2"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="F122" s="2"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2">
+        <v>0</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F123" s="2"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F124" s="2"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F125" s="2"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F126" s="2"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="F127" s="2"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2">
+        <v>0</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F128" s="2"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F130" s="2"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F131" s="2"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="F132" s="2"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F133" s="2"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="F134" s="2"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2">
+        <v>0</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="F135" s="2"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="F136" s="2"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="F137" s="2"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="F138" s="2"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F139" s="2"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F140" s="2"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F141" s="2"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F142" s="2"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F143" s="2"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F144" s="2"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F145" s="2"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F146" s="2"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F147" s="2"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F148" s="2"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F149" s="2"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F150" s="2"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F151" s="2"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="F152" s="2"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="F153" s="2"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F154" s="2"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F155" s="2"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="F156" s="2"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="F158" s="2"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F159" s="2"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2">
+        <v>0</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F160" s="2"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="D161" s="2">
+        <v>0</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F161" s="2"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2">
+        <v>0</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F162" s="2"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2">
+        <v>0</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F163" s="2"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="D164" s="2">
+        <v>0</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F164" s="2"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2">
+        <v>0</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="F166" s="2"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="D167" s="2">
+        <v>0</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F167" s="2"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F169" s="2"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="F170" s="2"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="D171" s="2">
+        <v>0</v>
+      </c>
+      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2">
+        <v>0</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F172" s="2"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="F173" s="2"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2">
+        <v>0</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F174" s="2"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="D175" s="2">
+        <v>0</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F175" s="2"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F176" s="2"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2">
+        <v>0</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F177" s="2"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="D178" s="2">
+        <v>0</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F178" s="2"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D179" s="2"/>
+      <c r="E179" s="2"/>
+      <c r="F179" s="2"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2">
+        <v>0</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F180" s="2"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2">
+        <v>0</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F181" s="2"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="D182" s="2">
+        <v>0</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F182" s="2"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
+      <c r="F183" s="2"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
+      <c r="E184" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F184" s="2"/>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="F185" s="2"/>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C186" s="2"/>
+      <c r="D186" s="2">
+        <v>0</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F186" s="2"/>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="C187" s="2"/>
+      <c r="D187" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="F187" s="2"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="F188" s="2"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F189" s="2"/>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F190" s="2"/>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F191" s="2"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F192" s="2"/>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="C193" s="2"/>
+      <c r="D193" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="F193" s="2"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="D194" s="2"/>
+      <c r="E194" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F194" s="2"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="D195" s="2"/>
+      <c r="E195" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="F195" s="2"/>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="D196" s="2"/>
+      <c r="E196" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F196" s="2"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="D197" s="2"/>
+      <c r="E197" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F197" s="2"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198" s="4" t="s">
         <v>901</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B198" s="2" t="s">
         <v>902</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C198" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="D198" s="2"/>
+      <c r="E198" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F198" s="2"/>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199" s="4" t="s">
         <v>904</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B199" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="C199" s="2"/>
+      <c r="D199" s="2"/>
+      <c r="E199" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F199" s="2"/>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200" s="4" t="s">
         <v>905</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B200" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C200" s="2" t="s">
         <v>907</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="D200" s="2"/>
+      <c r="E200" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F200" s="2"/>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201" s="4" t="s">
         <v>908</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B201" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C201" s="2" t="s">
         <v>910</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="D201" s="2"/>
+      <c r="E201" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F201" s="2"/>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202" s="4" t="s">
         <v>911</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B202" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C202" s="2" t="s">
         <v>913</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="D202" s="2"/>
+      <c r="E202" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F202" s="2"/>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203" s="4" t="s">
         <v>914</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B203" s="2" t="s">
         <v>915</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C203" s="2" t="s">
         <v>916</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="D203" s="2"/>
+      <c r="E203" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F203" s="2"/>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204" s="4" t="s">
         <v>917</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B204" s="2" t="s">
         <v>918</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C204" s="2" t="s">
         <v>919</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="D204" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F204" s="2"/>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205" s="4" t="s">
         <v>920</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B205" s="2" t="s">
         <v>921</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C205" s="2" t="s">
         <v>922</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="D205" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F205" s="2"/>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206" s="4" t="s">
         <v>923</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B206" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C206" s="2" t="s">
         <v>925</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="D206" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F206" s="2"/>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207" s="4" t="s">
         <v>926</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B207" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C207" s="2" t="s">
         <v>927</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="D207" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F207" s="2"/>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208" s="4" t="s">
         <v>928</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B208" s="2" t="s">
         <v>929</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C208" s="2" t="s">
         <v>930</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="2"/>
+      <c r="D208" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F208" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BookigModel2.0_Amadeus.xlsx
+++ b/BookigModel2.0_Amadeus.xlsx
@@ -16,6 +16,9 @@
     <sheet name="Estele" sheetId="2" r:id="rId2"/>
     <sheet name="DJ" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DJ!$F$1:$F$208</definedName>
+  </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2722" uniqueCount="932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2750" uniqueCount="957">
   <si>
     <t>LOCATION</t>
   </si>
@@ -2823,6 +2826,101 @@
   <si>
     <t xml:space="preserve">forPnrHandling.activePNRimage.originDestinationDetails.itineraryInfo.elementManagementItinerary.elementReference.number
 </t>
+  </si>
+  <si>
+    <t>forPnrHandling.activePNRimage.originDestinationDetails.itineraryInfo.yieldDataGroup.ondyield.origin</t>
+  </si>
+  <si>
+    <t>forPnrHandling.activePNRimage.originDestinationDetails.itineraryInfo.yieldDataGroup.tripOnD.origin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forPnrHandling.activePNRimage.originDestinationDetails.itineraryInfo.codeSharePartnerInfo.codeSharePartner.flightIdentification.flightNumber
+</t>
+  </si>
+  <si>
+    <t>forPnrHandling.activePNRimage.originDestinationDetails.itineraryInfo.bookingCreationDate. dateAndTimeDetails.date</t>
+  </si>
+  <si>
+    <t>forPnrHandling.activePNRimage.originDestinationDetails.itineraryInfo.typicalCarData.payment.formOfPayment.expiryDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forPnrHandling.activePNRimage.originDestinationDetails.itineraryInfo.typicalCarData.payment.formOfPayment.creditCardNumber
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forPnrHandling.activePNRimage.dataElementsMaster.dataElementsStruct.seatData.seatRequest.specialRequirementsInfo.numberInParty
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forPnrHandling.activePNRimage.dataElementsMaster.dataElementsStruct.seatData.seatRequest.specialRequirementsInfo.serviceType
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forPnrHandling.activePNRimage.dataElementsMaster.dataElementsStruct.seatData.seatRequest.specialRequirementsInfo.ssrCode
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forPnrHandling.activePNRimage.dataElementsMaster.dataElementsStruct.seatData.seatRequest.specialRequirementsInfo.actionCode
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forPnrHandling.activePNRimage.dataElementsMaster.dataElementsIndiv.serviceRequest.ssr.freetText
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forPnrHandling.activePNRimage.dataElementsMaster.dataElementsIndiv.frequentTravellerInfo.frequentTravellerDetails.carrier
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forPnrHandling.activePNRimage.dataElementsMaster.dataElementsIndiv.serviceRequest.ssr.status
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forPnrHandling.activePNRimage.dataElementsMaster.dataElementsIndiv.serviceRequest.ssr.companyId
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forPnrHandling.activePNRimage.dataElementsMaster.dataElementsIndiv.serviceRequest.ssr.indicatpr
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forPnrHandling.activePNRimage.dataElementsMaster.dataElementsIndiv.serviceRequest.ssr.quantity
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forPnrHandling.activePNRimage.dataElementsMaster.dataElementsIndiv.serviceRequest.ssr.type
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forPnrHandling.activePNRimage.dataElementsMaster.dataElementsStruct.seatData.seatRequest.specialRequirementsInfo.offPoint
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forPnrHandling.activePNRimage.dataElementsMaster.dataElementsStruct.seatData.seatRequest.specialRequirementsInfo.boardPoint
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forPnrHandling.activePNRimage.dataElementsMaster.dataElementsStruct.seatData.seatInformation.specificSeatDetails.seat
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forPnrHandling.activePNRimage.originDestinationDetails.itineraryInfo.typicalCarData.payment.formOfPayment.vendorCode
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forPnrHandling.activePNRimage.originDestinationDetails.itineraryInfo.typicalCarData.payment.formOfPayment.extendedPayment
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forPnrHandling.activePNRimage.originDestinationDetails.itineraryInfo.typicalCarData.payment.formOfPayment.fopFreeText
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forPnrHandling.activePNRimage.originDestinationDetails.itineraryInfo.yieldDataGroup.ondyield.destination
+</t>
+  </si>
+  <si>
+    <t>forPnrHandling.activePNRimage.originDestinationDetails.itineraryInfo.yieldDataGroup.tripOnD.destination</t>
   </si>
 </sst>
 </file>
@@ -2838,7 +2936,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2863,8 +2961,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2887,16 +3003,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3179,14 +3339,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F415"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A387" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A209" sqref="A209:F415"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="56" customWidth="1"/>
+    <col min="1" max="1" width="67.44140625" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="56" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
@@ -10562,23 +10722,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F208"/>
+  <dimension ref="A1:G208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="76.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="123.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51.5546875" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="85.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="84.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10588,7 +10750,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -10597,8 +10759,9 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>479</v>
       </c>
@@ -10608,15 +10771,16 @@
       <c r="C2" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>482</v>
       </c>
       <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>483</v>
       </c>
@@ -10626,15 +10790,16 @@
       <c r="C3" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>486</v>
       </c>
@@ -10644,15 +10809,16 @@
       <c r="C4" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="6">
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>489</v>
       </c>
@@ -10662,15 +10828,16 @@
       <c r="C5" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>492</v>
       </c>
@@ -10680,15 +10847,16 @@
       <c r="C6" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>495</v>
       </c>
@@ -10698,15 +10866,16 @@
       <c r="C7" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>498</v>
       </c>
@@ -10716,15 +10885,16 @@
       <c r="C8" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>501</v>
       </c>
@@ -10734,15 +10904,16 @@
       <c r="C9" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>504</v>
       </c>
       <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>505</v>
       </c>
@@ -10750,13 +10921,14 @@
         <v>506</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>507</v>
       </c>
@@ -10764,15 +10936,16 @@
         <v>508</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>509</v>
       </c>
@@ -10780,15 +10953,16 @@
         <v>510</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>511</v>
       </c>
@@ -10796,15 +10970,16 @@
         <v>512</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>513</v>
       </c>
@@ -10812,15 +10987,16 @@
         <v>514</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>515</v>
       </c>
@@ -10828,15 +11004,16 @@
         <v>516</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>517</v>
       </c>
@@ -10844,15 +11021,16 @@
         <v>518</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>519</v>
       </c>
@@ -10860,15 +11038,16 @@
         <v>520</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>521</v>
       </c>
@@ -10878,15 +11057,16 @@
       <c r="C18" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>524</v>
       </c>
       <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>525</v>
       </c>
@@ -10894,15 +11074,16 @@
         <v>526</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>527</v>
       </c>
@@ -10910,15 +11091,16 @@
         <v>528</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>529</v>
       </c>
@@ -10926,15 +11108,16 @@
         <v>530</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>531</v>
       </c>
@@ -10942,15 +11125,16 @@
         <v>532</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>533</v>
       </c>
@@ -10958,15 +11142,16 @@
         <v>534</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>535</v>
       </c>
@@ -10976,15 +11161,16 @@
       <c r="C24" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>538</v>
       </c>
@@ -10994,15 +11180,16 @@
       <c r="C25" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>541</v>
       </c>
       <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>542</v>
       </c>
@@ -11010,15 +11197,16 @@
         <v>506</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>543</v>
       </c>
@@ -11026,15 +11214,16 @@
         <v>544</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>545</v>
       </c>
@@ -11042,15 +11231,16 @@
         <v>546</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>547</v>
       </c>
@@ -11058,15 +11248,16 @@
         <v>548</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>549</v>
       </c>
@@ -11074,15 +11265,16 @@
         <v>550</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>551</v>
       </c>
@@ -11092,15 +11284,16 @@
       <c r="C31" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>554</v>
       </c>
       <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>555</v>
       </c>
@@ -11108,15 +11301,16 @@
         <v>556</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>557</v>
       </c>
@@ -11124,13 +11318,14 @@
         <v>345</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="D33" s="6"/>
       <c r="E33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>558</v>
       </c>
@@ -11140,15 +11335,16 @@
       <c r="C34" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>561</v>
       </c>
@@ -11158,15 +11354,16 @@
       <c r="C35" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>564</v>
       </c>
       <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>565</v>
       </c>
@@ -11174,15 +11371,16 @@
         <v>566</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>567</v>
       </c>
@@ -11192,15 +11390,16 @@
       <c r="C37" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>570</v>
       </c>
@@ -11208,15 +11407,16 @@
         <v>571</v>
       </c>
       <c r="C38" s="2"/>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>572</v>
       </c>
@@ -11226,15 +11426,16 @@
       <c r="C39" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>574</v>
       </c>
@@ -11244,15 +11445,16 @@
       <c r="C40" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>577</v>
       </c>
@@ -11262,15 +11464,16 @@
       <c r="C41" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>580</v>
       </c>
@@ -11280,15 +11483,16 @@
       <c r="C42" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>564</v>
       </c>
       <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>583</v>
       </c>
@@ -11296,13 +11500,14 @@
         <v>584</v>
       </c>
       <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+      <c r="D43" s="6"/>
       <c r="E43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>585</v>
       </c>
@@ -11310,13 +11515,14 @@
         <v>568</v>
       </c>
       <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
+      <c r="D44" s="6"/>
       <c r="E44" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>586</v>
       </c>
@@ -11324,13 +11530,14 @@
         <v>587</v>
       </c>
       <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
+      <c r="D45" s="6"/>
       <c r="E45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>588</v>
       </c>
@@ -11338,13 +11545,14 @@
         <v>573</v>
       </c>
       <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+      <c r="D46" s="6"/>
       <c r="E46" s="2" t="s">
         <v>541</v>
       </c>
       <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>589</v>
       </c>
@@ -11354,15 +11562,16 @@
       <c r="C47" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>564</v>
       </c>
       <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>592</v>
       </c>
@@ -11370,13 +11579,14 @@
         <v>584</v>
       </c>
       <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
+      <c r="D48" s="6"/>
       <c r="E48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>593</v>
       </c>
@@ -11384,13 +11594,14 @@
         <v>568</v>
       </c>
       <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
+      <c r="D49" s="6"/>
       <c r="E49" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>594</v>
       </c>
@@ -11398,13 +11609,14 @@
         <v>587</v>
       </c>
       <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
+      <c r="D50" s="6"/>
       <c r="E50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>595</v>
       </c>
@@ -11412,13 +11624,14 @@
         <v>573</v>
       </c>
       <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
+      <c r="D51" s="6"/>
       <c r="E51" s="2" t="s">
         <v>564</v>
       </c>
       <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>596</v>
       </c>
@@ -11426,15 +11639,16 @@
         <v>597</v>
       </c>
       <c r="C52" s="2"/>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F52" s="2"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>598</v>
       </c>
@@ -11444,15 +11658,16 @@
       <c r="C53" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="6">
         <v>0</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>600</v>
       </c>
@@ -11460,15 +11675,16 @@
         <v>601</v>
       </c>
       <c r="C54" s="2"/>
-      <c r="D54" s="2">
+      <c r="D54" s="6">
         <v>0</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>457</v>
       </c>
       <c r="F54" s="2"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>602</v>
       </c>
@@ -11478,15 +11694,16 @@
       <c r="C55" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>444</v>
       </c>
       <c r="F55" s="2"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>605</v>
       </c>
@@ -11496,15 +11713,16 @@
       <c r="C56" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F56" s="2"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>607</v>
       </c>
@@ -11514,15 +11732,16 @@
       <c r="C57" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F57" s="2"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>609</v>
       </c>
@@ -11532,15 +11751,16 @@
       <c r="C58" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F58" s="2"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>611</v>
       </c>
@@ -11550,15 +11770,16 @@
       <c r="C59" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="6">
         <v>0</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F59" s="2"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>613</v>
       </c>
@@ -11568,13 +11789,14 @@
       <c r="C60" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="D60" s="2"/>
+      <c r="D60" s="6"/>
       <c r="E60" s="2" t="s">
         <v>616</v>
       </c>
       <c r="F60" s="2"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>617</v>
       </c>
@@ -11584,33 +11806,39 @@
       <c r="C61" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>224</v>
       </c>
       <c r="F61" s="2"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="8" t="s">
         <v>620</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="2"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D62" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>932</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>621</v>
       </c>
@@ -11620,15 +11848,16 @@
       <c r="C63" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F63" s="2"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F63" s="10"/>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>622</v>
       </c>
@@ -11638,15 +11867,16 @@
       <c r="C64" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F64" s="2"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>623</v>
       </c>
@@ -11656,15 +11886,16 @@
       <c r="C65" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F65" s="2"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>624</v>
       </c>
@@ -11674,33 +11905,39 @@
       <c r="C66" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F66" s="2"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="1:7" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A67" s="8" t="s">
         <v>625</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F67" s="2"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D67" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>955</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>626</v>
       </c>
@@ -11710,15 +11947,16 @@
       <c r="C68" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F68" s="2"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>629</v>
       </c>
@@ -11728,15 +11966,16 @@
       <c r="C69" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F69" s="2"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>632</v>
       </c>
@@ -11746,15 +11985,16 @@
       <c r="C70" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F70" s="2"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70" s="2"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>635</v>
       </c>
@@ -11764,15 +12004,16 @@
       <c r="C71" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F71" s="2"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71" s="2"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>638</v>
       </c>
@@ -11782,13 +12023,14 @@
       <c r="C72" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="D72" s="2"/>
+      <c r="D72" s="6"/>
       <c r="E72" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F72" s="2"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72" s="2"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>641</v>
       </c>
@@ -11798,15 +12040,16 @@
       <c r="C73" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>644</v>
       </c>
       <c r="F73" s="2"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73" s="2"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>645</v>
       </c>
@@ -11816,15 +12059,16 @@
       <c r="C74" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F74" s="2"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74" s="2"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>648</v>
       </c>
@@ -11834,15 +12078,16 @@
       <c r="C75" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F75" s="2"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75" s="2"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>650</v>
       </c>
@@ -11852,15 +12097,16 @@
       <c r="C76" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F76" s="2"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76" s="2"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>653</v>
       </c>
@@ -11870,15 +12116,16 @@
       <c r="C77" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D77" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F77" s="2"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77" s="2"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>656</v>
       </c>
@@ -11888,15 +12135,16 @@
       <c r="C78" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F78" s="2"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78" s="2"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>659</v>
       </c>
@@ -11906,15 +12154,16 @@
       <c r="C79" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D79" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F79" s="2"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G79" s="2"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>662</v>
       </c>
@@ -11924,15 +12173,16 @@
       <c r="C80" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D80" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F80" s="2"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G80" s="2"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>665</v>
       </c>
@@ -11942,15 +12192,16 @@
       <c r="C81" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F81" s="2"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G81" s="2"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>668</v>
       </c>
@@ -11960,15 +12211,16 @@
       <c r="C82" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F82" s="2"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82" s="2"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>670</v>
       </c>
@@ -11976,15 +12228,16 @@
         <v>671</v>
       </c>
       <c r="C83" s="2"/>
-      <c r="D83" s="2" t="s">
+      <c r="D83" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>672</v>
       </c>
       <c r="F83" s="2"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G83" s="2"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>673</v>
       </c>
@@ -11992,15 +12245,16 @@
         <v>674</v>
       </c>
       <c r="C84" s="2"/>
-      <c r="D84" s="2" t="s">
+      <c r="D84" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>675</v>
       </c>
       <c r="F84" s="2"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G84" s="2"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>676</v>
       </c>
@@ -12010,15 +12264,16 @@
       <c r="C85" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D85" s="6" t="s">
         <v>679</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>680</v>
       </c>
       <c r="F85" s="2"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G85" s="2"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>681</v>
       </c>
@@ -12026,15 +12281,16 @@
         <v>682</v>
       </c>
       <c r="C86" s="2"/>
-      <c r="D86" s="2" t="s">
+      <c r="D86" s="6" t="s">
         <v>679</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F86" s="2"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G86" s="2"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>683</v>
       </c>
@@ -12042,15 +12298,16 @@
         <v>112</v>
       </c>
       <c r="C87" s="2"/>
-      <c r="D87" s="2" t="s">
+      <c r="D87" s="6" t="s">
         <v>679</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>148</v>
       </c>
       <c r="F87" s="2"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G87" s="2"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>684</v>
       </c>
@@ -12058,15 +12315,16 @@
         <v>685</v>
       </c>
       <c r="C88" s="2"/>
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F88" s="2"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G88" s="2"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>686</v>
       </c>
@@ -12074,15 +12332,16 @@
         <v>312</v>
       </c>
       <c r="C89" s="2"/>
-      <c r="D89" s="2" t="s">
+      <c r="D89" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>313</v>
       </c>
       <c r="F89" s="2"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G89" s="2"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>687</v>
       </c>
@@ -12090,15 +12349,16 @@
         <v>688</v>
       </c>
       <c r="C90" s="2"/>
-      <c r="D90" s="2" t="s">
+      <c r="D90" s="6" t="s">
         <v>679</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>689</v>
       </c>
       <c r="F90" s="2"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G90" s="2"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>690</v>
       </c>
@@ -12106,15 +12366,16 @@
         <v>691</v>
       </c>
       <c r="C91" s="2"/>
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F91" s="2"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G91" s="2"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>692</v>
       </c>
@@ -12122,15 +12383,16 @@
         <v>693</v>
       </c>
       <c r="C92" s="2"/>
-      <c r="D92" s="2" t="s">
+      <c r="D92" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F92" s="2"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G92" s="2"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>694</v>
       </c>
@@ -12138,15 +12400,16 @@
         <v>695</v>
       </c>
       <c r="C93" s="2"/>
-      <c r="D93" s="2" t="s">
+      <c r="D93" s="6" t="s">
         <v>679</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F93" s="2"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G93" s="2"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>696</v>
       </c>
@@ -12154,15 +12417,16 @@
         <v>219</v>
       </c>
       <c r="C94" s="2"/>
-      <c r="D94" s="2" t="s">
+      <c r="D94" s="6" t="s">
         <v>679</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>148</v>
       </c>
       <c r="F94" s="2"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G94" s="2"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>697</v>
       </c>
@@ -12170,15 +12434,16 @@
         <v>331</v>
       </c>
       <c r="C95" s="2"/>
-      <c r="D95" s="2" t="s">
+      <c r="D95" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>313</v>
       </c>
       <c r="F95" s="2"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G95" s="2"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>698</v>
       </c>
@@ -12188,11 +12453,12 @@
       <c r="C96" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="D96" s="2"/>
+      <c r="D96" s="6"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G96" s="2"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>700</v>
       </c>
@@ -12200,15 +12466,16 @@
         <v>701</v>
       </c>
       <c r="C97" s="2"/>
-      <c r="D97" s="2" t="s">
+      <c r="D97" s="6" t="s">
         <v>679</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F97" s="2"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G97" s="2"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>702</v>
       </c>
@@ -12216,13 +12483,14 @@
         <v>703</v>
       </c>
       <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
+      <c r="D98" s="6"/>
       <c r="E98" s="2" t="s">
         <v>616</v>
       </c>
       <c r="F98" s="2"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G98" s="2"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>704</v>
       </c>
@@ -12230,15 +12498,16 @@
         <v>705</v>
       </c>
       <c r="C99" s="2"/>
-      <c r="D99" s="2" t="s">
+      <c r="D99" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F99" s="2"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G99" s="2"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>706</v>
       </c>
@@ -12246,15 +12515,16 @@
         <v>707</v>
       </c>
       <c r="C100" s="2"/>
-      <c r="D100" s="2" t="s">
+      <c r="D100" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F100" s="2"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G100" s="2"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>708</v>
       </c>
@@ -12262,15 +12532,16 @@
         <v>709</v>
       </c>
       <c r="C101" s="2"/>
-      <c r="D101" s="2" t="s">
+      <c r="D101" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F101" s="2"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G101" s="2"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>710</v>
       </c>
@@ -12278,15 +12549,16 @@
         <v>711</v>
       </c>
       <c r="C102" s="2"/>
-      <c r="D102" s="2" t="s">
+      <c r="D102" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F102" s="2"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G102" s="2"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>712</v>
       </c>
@@ -12294,15 +12566,16 @@
         <v>713</v>
       </c>
       <c r="C103" s="2"/>
-      <c r="D103" s="2" t="s">
+      <c r="D103" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>714</v>
       </c>
       <c r="F103" s="2"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G103" s="2"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>715</v>
       </c>
@@ -12312,13 +12585,14 @@
       <c r="C104" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="D104" s="2"/>
+      <c r="D104" s="6"/>
       <c r="E104" s="2" t="s">
         <v>716</v>
       </c>
       <c r="F104" s="2"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G104" s="2"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>718</v>
       </c>
@@ -12326,15 +12600,16 @@
         <v>7</v>
       </c>
       <c r="C105" s="2"/>
-      <c r="D105" s="2" t="s">
+      <c r="D105" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F105" s="2"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G105" s="2"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>719</v>
       </c>
@@ -12344,15 +12619,16 @@
       <c r="C106" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D106" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>313</v>
       </c>
       <c r="F106" s="2"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G106" s="2"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>722</v>
       </c>
@@ -12360,15 +12636,16 @@
         <v>174</v>
       </c>
       <c r="C107" s="2"/>
-      <c r="D107" s="2" t="s">
+      <c r="D107" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F107" s="2"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G107" s="2"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>723</v>
       </c>
@@ -12376,15 +12653,16 @@
         <v>724</v>
       </c>
       <c r="C108" s="2"/>
-      <c r="D108" s="2" t="s">
+      <c r="D108" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F108" s="2"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G108" s="2"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>725</v>
       </c>
@@ -12394,33 +12672,37 @@
       <c r="C109" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="D109" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F109" s="2"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="2" t="s">
+      <c r="G109" s="2"/>
+    </row>
+    <row r="110" spans="1:7" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A110" s="8" t="s">
         <v>728</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="8" t="s">
         <v>729</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D110" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E110" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F110" s="2"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E110" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110" s="15" t="s">
+        <v>934</v>
+      </c>
+      <c r="G110" s="8"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>730</v>
       </c>
@@ -12428,15 +12710,16 @@
         <v>474</v>
       </c>
       <c r="C111" s="2"/>
-      <c r="D111" s="2" t="s">
+      <c r="D111" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F111" s="2"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G111" s="2"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>731</v>
       </c>
@@ -12446,15 +12729,16 @@
       <c r="C112" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D112" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>313</v>
       </c>
       <c r="F112" s="2"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G112" s="2"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>734</v>
       </c>
@@ -12464,11 +12748,12 @@
       <c r="C113" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="D113" s="2"/>
+      <c r="D113" s="6"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G113" s="2"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>735</v>
       </c>
@@ -12476,13 +12761,14 @@
         <v>736</v>
       </c>
       <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
+      <c r="D114" s="6"/>
       <c r="E114" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F114" s="2"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G114" s="2"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>737</v>
       </c>
@@ -12490,13 +12776,14 @@
         <v>738</v>
       </c>
       <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
+      <c r="D115" s="6"/>
       <c r="E115" s="2" t="s">
         <v>616</v>
       </c>
       <c r="F115" s="2"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G115" s="2"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>739</v>
       </c>
@@ -12506,15 +12793,16 @@
       <c r="C116" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="D116" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F116" s="2"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G116" s="2"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>742</v>
       </c>
@@ -12522,15 +12810,16 @@
         <v>743</v>
       </c>
       <c r="C117" s="2"/>
-      <c r="D117" s="2" t="s">
+      <c r="D117" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F117" s="2"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G117" s="2"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>744</v>
       </c>
@@ -12540,31 +12829,35 @@
       <c r="C118" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="D118" s="2"/>
+      <c r="D118" s="6"/>
       <c r="E118" s="2" t="s">
         <v>616</v>
       </c>
       <c r="F118" s="2"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="2" t="s">
+      <c r="G118" s="2"/>
+    </row>
+    <row r="119" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="8" t="s">
         <v>747</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="8" t="s">
         <v>748</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" s="8" t="s">
         <v>749</v>
       </c>
-      <c r="D119" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E119" s="2" t="s">
+      <c r="D119" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E119" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="F119" s="2"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F119" s="8" t="s">
+        <v>935</v>
+      </c>
+      <c r="G119" s="8"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>750</v>
       </c>
@@ -12574,15 +12867,16 @@
       <c r="C120" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="D120" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F120" s="2"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G120" s="2"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>753</v>
       </c>
@@ -12590,15 +12884,16 @@
         <v>754</v>
       </c>
       <c r="C121" s="2"/>
-      <c r="D121" s="2" t="s">
+      <c r="D121" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>755</v>
       </c>
       <c r="F121" s="2"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G121" s="2"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>756</v>
       </c>
@@ -12608,65 +12903,75 @@
       <c r="C122" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D122" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>758</v>
       </c>
       <c r="F122" s="2"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="2" t="s">
+      <c r="G122" s="2"/>
+    </row>
+    <row r="123" spans="1:7" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A123" s="8" t="s">
         <v>759</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2">
+      <c r="C123" s="8"/>
+      <c r="D123" s="9">
         <v>0</v>
       </c>
-      <c r="E123" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F123" s="2"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="2" t="s">
+      <c r="E123" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F123" s="15" t="s">
+        <v>944</v>
+      </c>
+      <c r="G123" s="8"/>
+    </row>
+    <row r="124" spans="1:7" s="14" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A124" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="8" t="s">
         <v>606</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" s="8" t="s">
         <v>761</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="D124" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E124" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F124" s="2"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="2" t="s">
+      <c r="E124" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F124" s="15" t="s">
+        <v>943</v>
+      </c>
+      <c r="G124" s="8"/>
+    </row>
+    <row r="125" spans="1:7" s="14" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A125" s="8" t="s">
         <v>762</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="8" t="s">
         <v>763</v>
       </c>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F125" s="2"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C125" s="8"/>
+      <c r="D125" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F125" s="15" t="s">
+        <v>942</v>
+      </c>
+      <c r="G125" s="8"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>764</v>
       </c>
@@ -12674,15 +12979,16 @@
         <v>765</v>
       </c>
       <c r="C126" s="2"/>
-      <c r="D126" s="2" t="s">
+      <c r="D126" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F126" s="2"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G126" s="2"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>766</v>
       </c>
@@ -12692,31 +12998,35 @@
       <c r="C127" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="D127" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>769</v>
       </c>
       <c r="F127" s="2"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="2" t="s">
+      <c r="G127" s="2"/>
+    </row>
+    <row r="128" spans="1:7" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A128" s="8" t="s">
         <v>770</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2">
+      <c r="C128" s="8"/>
+      <c r="D128" s="9">
         <v>0</v>
       </c>
-      <c r="E128" s="2" t="s">
+      <c r="E128" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F128" s="2"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F128" s="15" t="s">
+        <v>947</v>
+      </c>
+      <c r="G128" s="8"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>771</v>
       </c>
@@ -12726,55 +13036,65 @@
       <c r="C129" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="D129" s="2"/>
+      <c r="D129" s="6"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="2" t="s">
+      <c r="G129" s="2"/>
+    </row>
+    <row r="130" spans="1:7" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A130" s="8" t="s">
         <v>772</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="8" t="s">
         <v>773</v>
       </c>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2" t="s">
+      <c r="C130" s="8"/>
+      <c r="D130" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="E130" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F130" s="2"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="2" t="s">
+      <c r="E130" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F130" s="16" t="s">
+        <v>946</v>
+      </c>
+      <c r="G130" s="8"/>
+    </row>
+    <row r="131" spans="1:7" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A131" s="8" t="s">
         <v>774</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="8" t="s">
         <v>736</v>
       </c>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F131" s="2"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="2" t="s">
+      <c r="C131" s="8"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F131" s="15" t="s">
+        <v>945</v>
+      </c>
+      <c r="G131" s="8"/>
+    </row>
+    <row r="132" spans="1:7" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A132" s="8" t="s">
         <v>775</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="8" t="s">
         <v>738</v>
       </c>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2" t="s">
+      <c r="C132" s="8"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="8" t="s">
         <v>769</v>
       </c>
-      <c r="F132" s="2"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F132" s="15" t="s">
+        <v>948</v>
+      </c>
+      <c r="G132" s="8"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>776</v>
       </c>
@@ -12782,367 +13102,408 @@
         <v>777</v>
       </c>
       <c r="C133" s="2"/>
-      <c r="D133" s="2" t="s">
+      <c r="D133" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F133" s="2"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="2" t="s">
+      <c r="G133" s="2"/>
+    </row>
+    <row r="134" spans="1:7" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A134" s="8" t="s">
         <v>778</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="8" t="s">
         <v>779</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C134" s="8" t="s">
         <v>780</v>
       </c>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2" t="s">
+      <c r="D134" s="9"/>
+      <c r="E134" s="8" t="s">
         <v>781</v>
       </c>
-      <c r="F134" s="2"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="2" t="s">
+      <c r="F134" s="15" t="s">
+        <v>954</v>
+      </c>
+      <c r="G134" s="8"/>
+    </row>
+    <row r="135" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="17" t="s">
         <v>782</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="17" t="s">
         <v>724</v>
       </c>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2">
+      <c r="C135" s="17"/>
+      <c r="D135" s="18">
         <v>0</v>
       </c>
-      <c r="E135" s="2" t="s">
+      <c r="E135" s="17" t="s">
         <v>783</v>
       </c>
-      <c r="F135" s="2"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="2" t="s">
+      <c r="F135" s="17"/>
+      <c r="G135" s="17"/>
+    </row>
+    <row r="136" spans="1:7" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A136" s="8" t="s">
         <v>784</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="8" t="s">
         <v>785</v>
       </c>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2" t="s">
+      <c r="C136" s="8"/>
+      <c r="D136" s="9"/>
+      <c r="E136" s="8" t="s">
         <v>785</v>
       </c>
-      <c r="F136" s="2"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="2" t="s">
+      <c r="F136" s="15" t="s">
+        <v>937</v>
+      </c>
+      <c r="G136" s="8"/>
+    </row>
+    <row r="137" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="17" t="s">
         <v>786</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="17" t="s">
         <v>787</v>
       </c>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2" t="s">
+      <c r="C137" s="17"/>
+      <c r="D137" s="18"/>
+      <c r="E137" s="17" t="s">
         <v>787</v>
       </c>
-      <c r="F137" s="2"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="2" t="s">
+      <c r="F137" s="17"/>
+      <c r="G137" s="17"/>
+    </row>
+    <row r="138" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="17" t="s">
         <v>788</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="17" t="s">
         <v>789</v>
       </c>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2" t="s">
+      <c r="C138" s="17"/>
+      <c r="D138" s="18"/>
+      <c r="E138" s="17" t="s">
         <v>789</v>
       </c>
-      <c r="F138" s="2"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="2" t="s">
+      <c r="F138" s="17"/>
+      <c r="G138" s="17"/>
+    </row>
+    <row r="139" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="17" t="s">
         <v>790</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="17" t="s">
         <v>791</v>
       </c>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F139" s="2"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="2" t="s">
+      <c r="C139" s="17"/>
+      <c r="D139" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E139" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F139" s="17"/>
+      <c r="G139" s="17"/>
+    </row>
+    <row r="140" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="17" t="s">
         <v>792</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" s="17" t="s">
         <v>793</v>
       </c>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F140" s="2"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="2" t="s">
+      <c r="C140" s="17"/>
+      <c r="D140" s="18"/>
+      <c r="E140" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F140" s="17"/>
+      <c r="G140" s="17"/>
+    </row>
+    <row r="141" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="17" t="s">
         <v>794</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="17" t="s">
         <v>795</v>
       </c>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F141" s="2"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="2" t="s">
+      <c r="C141" s="17"/>
+      <c r="D141" s="18"/>
+      <c r="E141" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F141" s="17"/>
+      <c r="G141" s="17"/>
+    </row>
+    <row r="142" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="17" t="s">
         <v>796</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" s="17" t="s">
         <v>797</v>
       </c>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F142" s="2"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="2" t="s">
+      <c r="C142" s="17"/>
+      <c r="D142" s="18"/>
+      <c r="E142" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F142" s="17"/>
+      <c r="G142" s="17"/>
+    </row>
+    <row r="143" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="17" t="s">
         <v>798</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="17" t="s">
         <v>799</v>
       </c>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F143" s="2"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="2" t="s">
+      <c r="C143" s="17"/>
+      <c r="D143" s="18"/>
+      <c r="E143" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F143" s="17"/>
+      <c r="G143" s="17"/>
+    </row>
+    <row r="144" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="17" t="s">
         <v>800</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="17" t="s">
         <v>801</v>
       </c>
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F144" s="2"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="2" t="s">
+      <c r="C144" s="17"/>
+      <c r="D144" s="18"/>
+      <c r="E144" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F144" s="17"/>
+      <c r="G144" s="17"/>
+    </row>
+    <row r="145" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="17" t="s">
         <v>802</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="17" t="s">
         <v>803</v>
       </c>
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F145" s="2"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="2" t="s">
+      <c r="C145" s="17"/>
+      <c r="D145" s="18"/>
+      <c r="E145" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F145" s="17"/>
+      <c r="G145" s="17"/>
+    </row>
+    <row r="146" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="17" t="s">
         <v>804</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" s="17" t="s">
         <v>805</v>
       </c>
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
-      <c r="E146" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F146" s="2"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="2" t="s">
+      <c r="C146" s="17"/>
+      <c r="D146" s="18"/>
+      <c r="E146" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F146" s="17"/>
+      <c r="G146" s="17"/>
+    </row>
+    <row r="147" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="17" t="s">
         <v>806</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="17" t="s">
         <v>807</v>
       </c>
-      <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
-      <c r="E147" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F147" s="2"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="2" t="s">
+      <c r="C147" s="17"/>
+      <c r="D147" s="18"/>
+      <c r="E147" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F147" s="17"/>
+      <c r="G147" s="17"/>
+    </row>
+    <row r="148" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="17" t="s">
         <v>809</v>
       </c>
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
-      <c r="E148" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F148" s="2"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="2" t="s">
+      <c r="C148" s="17"/>
+      <c r="D148" s="18"/>
+      <c r="E148" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F148" s="17"/>
+      <c r="G148" s="17"/>
+    </row>
+    <row r="149" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="17" t="s">
         <v>810</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="17" t="s">
         <v>811</v>
       </c>
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
-      <c r="E149" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F149" s="2"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="2" t="s">
+      <c r="C149" s="17"/>
+      <c r="D149" s="18"/>
+      <c r="E149" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F149" s="17"/>
+      <c r="G149" s="17"/>
+    </row>
+    <row r="150" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="17" t="s">
         <v>812</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="17" t="s">
         <v>813</v>
       </c>
-      <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
-      <c r="E150" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F150" s="2"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="2" t="s">
+      <c r="C150" s="17"/>
+      <c r="D150" s="18"/>
+      <c r="E150" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F150" s="17"/>
+      <c r="G150" s="17"/>
+    </row>
+    <row r="151" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="17" t="s">
         <v>814</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="17" t="s">
         <v>815</v>
       </c>
-      <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
-      <c r="E151" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F151" s="2"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="2" t="s">
+      <c r="C151" s="17"/>
+      <c r="D151" s="18"/>
+      <c r="E151" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F151" s="17"/>
+      <c r="G151" s="17"/>
+    </row>
+    <row r="152" spans="1:7" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A152" s="8" t="s">
         <v>816</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B152" s="8" t="s">
         <v>817</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="C152" s="8" t="s">
         <v>818</v>
       </c>
-      <c r="D152" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E152" s="2" t="s">
+      <c r="D152" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E152" s="8" t="s">
         <v>819</v>
       </c>
-      <c r="F152" s="2"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="2" t="s">
+      <c r="F152" s="15" t="s">
+        <v>952</v>
+      </c>
+      <c r="G152" s="8"/>
+    </row>
+    <row r="153" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="8" t="s">
         <v>820</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="8" t="s">
         <v>821</v>
       </c>
-      <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
-      <c r="E153" s="2" t="s">
+      <c r="C153" s="8"/>
+      <c r="D153" s="9"/>
+      <c r="E153" s="8" t="s">
         <v>821</v>
       </c>
-      <c r="F153" s="2"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="2" t="s">
+      <c r="F153" s="8" t="s">
+        <v>936</v>
+      </c>
+      <c r="G153" s="8"/>
+    </row>
+    <row r="154" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="11" t="s">
         <v>822</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="11" t="s">
         <v>823</v>
       </c>
-      <c r="C154" s="2"/>
-      <c r="D154" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F154" s="2"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="2" t="s">
+      <c r="C154" s="11"/>
+      <c r="D154" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E154" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F154" s="11" t="s">
+        <v>936</v>
+      </c>
+      <c r="G154" s="11"/>
+    </row>
+    <row r="155" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="11" t="s">
         <v>824</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B155" s="11" t="s">
         <v>825</v>
       </c>
-      <c r="C155" s="2"/>
-      <c r="D155" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F155" s="2"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="2" t="s">
+      <c r="C155" s="11"/>
+      <c r="D155" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E155" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F155" s="11" t="s">
+        <v>936</v>
+      </c>
+      <c r="G155" s="11"/>
+    </row>
+    <row r="156" spans="1:7" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A156" s="8" t="s">
         <v>826</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" s="8" t="s">
         <v>827</v>
       </c>
-      <c r="C156" s="2"/>
-      <c r="D156" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E156" s="2" t="s">
+      <c r="C156" s="8"/>
+      <c r="D156" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E156" s="8" t="s">
         <v>828</v>
       </c>
-      <c r="F156" s="2"/>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="2" t="s">
+      <c r="F156" s="15" t="s">
+        <v>937</v>
+      </c>
+      <c r="G156" s="8"/>
+    </row>
+    <row r="157" spans="1:7" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A157" s="8" t="s">
         <v>829</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B157" s="8" t="s">
         <v>614</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C157" s="8" t="s">
         <v>699</v>
       </c>
-      <c r="D157" s="2"/>
-      <c r="E157" s="2"/>
-      <c r="F157" s="2"/>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D157" s="9"/>
+      <c r="E157" s="8"/>
+      <c r="F157" s="15" t="s">
+        <v>953</v>
+      </c>
+      <c r="G157" s="8"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>830</v>
       </c>
@@ -13150,13 +13511,14 @@
         <v>275</v>
       </c>
       <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
+      <c r="D158" s="6"/>
       <c r="E158" s="2" t="s">
         <v>616</v>
       </c>
       <c r="F158" s="2"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G158" s="2"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>831</v>
       </c>
@@ -13164,49 +13526,56 @@
         <v>716</v>
       </c>
       <c r="C159" s="2"/>
-      <c r="D159" s="2" t="s">
+      <c r="D159" s="6" t="s">
         <v>832</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F159" s="2"/>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="2" t="s">
+      <c r="G159" s="2"/>
+    </row>
+    <row r="160" spans="1:7" s="14" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A160" s="8" t="s">
         <v>833</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B160" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C160" s="2"/>
-      <c r="D160" s="2">
+      <c r="C160" s="8"/>
+      <c r="D160" s="9">
         <v>0</v>
       </c>
-      <c r="E160" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F160" s="2"/>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161" s="2" t="s">
+      <c r="E160" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F160" s="15" t="s">
+        <v>941</v>
+      </c>
+      <c r="G160" s="8"/>
+    </row>
+    <row r="161" spans="1:7" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A161" s="8" t="s">
         <v>834</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B161" s="8" t="s">
         <v>720</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C161" s="8" t="s">
         <v>835</v>
       </c>
-      <c r="D161" s="2">
+      <c r="D161" s="9">
         <v>0</v>
       </c>
-      <c r="E161" s="2" t="s">
+      <c r="E161" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="F161" s="2"/>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F161" s="15" t="s">
+        <v>950</v>
+      </c>
+      <c r="G161" s="8"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>836</v>
       </c>
@@ -13214,15 +13583,16 @@
         <v>174</v>
       </c>
       <c r="C162" s="2"/>
-      <c r="D162" s="2">
+      <c r="D162" s="6">
         <v>0</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F162" s="2"/>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G162" s="2"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>837</v>
       </c>
@@ -13230,15 +13600,16 @@
         <v>724</v>
       </c>
       <c r="C163" s="2"/>
-      <c r="D163" s="2">
+      <c r="D163" s="6">
         <v>0</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F163" s="2"/>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G163" s="2"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>838</v>
       </c>
@@ -13248,15 +13619,16 @@
       <c r="C164" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="D164" s="2">
+      <c r="D164" s="6">
         <v>0</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>313</v>
       </c>
       <c r="F164" s="2"/>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G164" s="2"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>840</v>
       </c>
@@ -13266,59 +13638,69 @@
       <c r="C165" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D165" s="2"/>
+      <c r="D165" s="6"/>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A166" s="2" t="s">
+      <c r="G165" s="2"/>
+    </row>
+    <row r="166" spans="1:7" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A166" s="8" t="s">
         <v>841</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B166" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="C166" s="2"/>
-      <c r="D166" s="2">
+      <c r="C166" s="8"/>
+      <c r="D166" s="9">
         <v>0</v>
       </c>
-      <c r="E166" s="2" t="s">
+      <c r="E166" s="8" t="s">
         <v>842</v>
       </c>
-      <c r="F166" s="2"/>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A167" s="2" t="s">
+      <c r="F166" s="15" t="s">
+        <v>938</v>
+      </c>
+      <c r="G166" s="8"/>
+    </row>
+    <row r="167" spans="1:7" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A167" s="8" t="s">
         <v>843</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B167" s="8" t="s">
         <v>732</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="C167" s="8" t="s">
         <v>844</v>
       </c>
-      <c r="D167" s="2">
+      <c r="D167" s="9">
         <v>0</v>
       </c>
-      <c r="E167" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F167" s="2"/>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A168" s="2" t="s">
+      <c r="E167" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F167" s="15" t="s">
+        <v>949</v>
+      </c>
+      <c r="G167" s="8"/>
+    </row>
+    <row r="168" spans="1:7" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A168" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B168" s="8" t="s">
         <v>614</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C168" s="8" t="s">
         <v>699</v>
       </c>
-      <c r="D168" s="2"/>
-      <c r="E168" s="2"/>
-      <c r="F168" s="2"/>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D168" s="9"/>
+      <c r="E168" s="8"/>
+      <c r="F168" s="15" t="s">
+        <v>951</v>
+      </c>
+      <c r="G168" s="8"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>846</v>
       </c>
@@ -13326,59 +13708,66 @@
         <v>736</v>
       </c>
       <c r="C169" s="2"/>
-      <c r="D169" s="2"/>
+      <c r="D169" s="6"/>
       <c r="E169" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F169" s="2"/>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A170" s="2" t="s">
+      <c r="G169" s="2"/>
+    </row>
+    <row r="170" spans="1:7" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A170" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B170" s="8" t="s">
         <v>738</v>
       </c>
-      <c r="C170" s="2"/>
-      <c r="D170" s="2"/>
-      <c r="E170" s="2" t="s">
+      <c r="C170" s="8"/>
+      <c r="D170" s="9"/>
+      <c r="E170" s="8" t="s">
         <v>616</v>
       </c>
-      <c r="F170" s="2"/>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171" s="2" t="s">
+      <c r="F170" s="15" t="s">
+        <v>939</v>
+      </c>
+      <c r="G170" s="8"/>
+    </row>
+    <row r="171" spans="1:7" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A171" s="8" t="s">
         <v>848</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B171" s="8" t="s">
         <v>740</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="C171" s="8" t="s">
         <v>849</v>
       </c>
-      <c r="D171" s="2">
+      <c r="D171" s="9">
         <v>0</v>
       </c>
-      <c r="E171" s="2"/>
-      <c r="F171" s="2"/>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A172" s="2" t="s">
+      <c r="E171" s="8"/>
+      <c r="F171" s="15" t="s">
+        <v>940</v>
+      </c>
+      <c r="G171" s="8"/>
+    </row>
+    <row r="172" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="8" t="s">
         <v>850</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B172" s="8" t="s">
         <v>743</v>
       </c>
-      <c r="C172" s="2"/>
-      <c r="D172" s="2">
+      <c r="C172" s="8"/>
+      <c r="D172" s="9">
         <v>0</v>
       </c>
-      <c r="E172" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F172" s="2"/>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E172" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G172" s="8"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>851</v>
       </c>
@@ -13388,13 +13777,14 @@
       <c r="C173" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="D173" s="2"/>
+      <c r="D173" s="6"/>
       <c r="E173" s="2" t="s">
         <v>852</v>
       </c>
       <c r="F173" s="2"/>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G173" s="2"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>854</v>
       </c>
@@ -13402,15 +13792,16 @@
         <v>7</v>
       </c>
       <c r="C174" s="2"/>
-      <c r="D174" s="2">
+      <c r="D174" s="6">
         <v>0</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F174" s="2"/>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G174" s="2"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>855</v>
       </c>
@@ -13420,15 +13811,16 @@
       <c r="C175" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="D175" s="2">
+      <c r="D175" s="6">
         <v>0</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>313</v>
       </c>
       <c r="F175" s="2"/>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G175" s="2"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>856</v>
       </c>
@@ -13436,15 +13828,16 @@
         <v>46</v>
       </c>
       <c r="C176" s="2"/>
-      <c r="D176" s="2" t="s">
+      <c r="D176" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F176" s="2"/>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G176" s="2"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>857</v>
       </c>
@@ -13452,15 +13845,16 @@
         <v>174</v>
       </c>
       <c r="C177" s="2"/>
-      <c r="D177" s="2">
+      <c r="D177" s="6">
         <v>0</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F177" s="2"/>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G177" s="2"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>858</v>
       </c>
@@ -13470,15 +13864,16 @@
       <c r="C178" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="D178" s="2">
+      <c r="D178" s="6">
         <v>0</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>313</v>
       </c>
       <c r="F178" s="2"/>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G178" s="2"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>859</v>
       </c>
@@ -13488,11 +13883,12 @@
       <c r="C179" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D179" s="2"/>
+      <c r="D179" s="6"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G179" s="2"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>860</v>
       </c>
@@ -13500,15 +13896,16 @@
         <v>763</v>
       </c>
       <c r="C180" s="2"/>
-      <c r="D180" s="2">
+      <c r="D180" s="6">
         <v>0</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F180" s="2"/>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G180" s="2"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>861</v>
       </c>
@@ -13516,15 +13913,16 @@
         <v>474</v>
       </c>
       <c r="C181" s="2"/>
-      <c r="D181" s="2">
+      <c r="D181" s="6">
         <v>0</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F181" s="2"/>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G181" s="2"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>862</v>
       </c>
@@ -13534,15 +13932,16 @@
       <c r="C182" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="D182" s="2">
+      <c r="D182" s="6">
         <v>0</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F182" s="2"/>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G182" s="2"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>863</v>
       </c>
@@ -13552,11 +13951,12 @@
       <c r="C183" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="D183" s="2"/>
+      <c r="D183" s="6"/>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G183" s="2"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>864</v>
       </c>
@@ -13564,13 +13964,14 @@
         <v>736</v>
       </c>
       <c r="C184" s="2"/>
-      <c r="D184" s="2"/>
+      <c r="D184" s="6"/>
       <c r="E184" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F184" s="2"/>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G184" s="2"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>865</v>
       </c>
@@ -13578,13 +13979,14 @@
         <v>738</v>
       </c>
       <c r="C185" s="2"/>
-      <c r="D185" s="2"/>
+      <c r="D185" s="6"/>
       <c r="E185" s="2" t="s">
         <v>616</v>
       </c>
       <c r="F185" s="2"/>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G185" s="2"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>866</v>
       </c>
@@ -13592,15 +13994,16 @@
         <v>743</v>
       </c>
       <c r="C186" s="2"/>
-      <c r="D186" s="2">
+      <c r="D186" s="6">
         <v>0</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F186" s="2"/>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G186" s="2"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>867</v>
       </c>
@@ -13608,15 +14011,16 @@
         <v>868</v>
       </c>
       <c r="C187" s="2"/>
-      <c r="D187" s="2" t="s">
+      <c r="D187" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>869</v>
       </c>
       <c r="F187" s="2"/>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G187" s="2"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>870</v>
       </c>
@@ -13626,15 +14030,16 @@
       <c r="C188" s="2" t="s">
         <v>872</v>
       </c>
-      <c r="D188" s="2" t="s">
+      <c r="D188" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>873</v>
       </c>
       <c r="F188" s="2"/>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G188" s="2"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
         <v>874</v>
       </c>
@@ -13644,15 +14049,16 @@
       <c r="C189" s="2" t="s">
         <v>876</v>
       </c>
-      <c r="D189" s="2" t="s">
+      <c r="D189" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F189" s="2"/>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G189" s="2"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
         <v>877</v>
       </c>
@@ -13662,15 +14068,16 @@
       <c r="C190" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="D190" s="2" t="s">
+      <c r="D190" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F190" s="2"/>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G190" s="2"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
         <v>880</v>
       </c>
@@ -13680,15 +14087,16 @@
       <c r="C191" s="2" t="s">
         <v>882</v>
       </c>
-      <c r="D191" s="2" t="s">
+      <c r="D191" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F191" s="2"/>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G191" s="2"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
         <v>883</v>
       </c>
@@ -13698,15 +14106,16 @@
       <c r="C192" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="D192" s="2" t="s">
+      <c r="D192" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F192" s="2"/>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G192" s="2"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
         <v>886</v>
       </c>
@@ -13714,15 +14123,16 @@
         <v>887</v>
       </c>
       <c r="C193" s="2"/>
-      <c r="D193" s="2" t="s">
+      <c r="D193" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>887</v>
       </c>
       <c r="F193" s="2"/>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G193" s="2"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
         <v>888</v>
       </c>
@@ -13732,13 +14142,14 @@
       <c r="C194" s="2" t="s">
         <v>890</v>
       </c>
-      <c r="D194" s="2"/>
+      <c r="D194" s="6"/>
       <c r="E194" s="2" t="s">
         <v>148</v>
       </c>
       <c r="F194" s="2"/>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G194" s="2"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
         <v>891</v>
       </c>
@@ -13748,13 +14159,14 @@
       <c r="C195" s="2" t="s">
         <v>893</v>
       </c>
-      <c r="D195" s="2"/>
+      <c r="D195" s="6"/>
       <c r="E195" s="2" t="s">
         <v>894</v>
       </c>
       <c r="F195" s="2"/>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G195" s="2"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
         <v>895</v>
       </c>
@@ -13764,13 +14176,14 @@
       <c r="C196" s="2" t="s">
         <v>897</v>
       </c>
-      <c r="D196" s="2"/>
+      <c r="D196" s="6"/>
       <c r="E196" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F196" s="2"/>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G196" s="2"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
         <v>898</v>
       </c>
@@ -13780,13 +14193,14 @@
       <c r="C197" s="2" t="s">
         <v>900</v>
       </c>
-      <c r="D197" s="2"/>
+      <c r="D197" s="6"/>
       <c r="E197" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F197" s="2"/>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G197" s="2"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
         <v>901</v>
       </c>
@@ -13796,13 +14210,14 @@
       <c r="C198" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="D198" s="2"/>
+      <c r="D198" s="6"/>
       <c r="E198" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F198" s="2"/>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G198" s="2"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
         <v>904</v>
       </c>
@@ -13810,13 +14225,14 @@
         <v>226</v>
       </c>
       <c r="C199" s="2"/>
-      <c r="D199" s="2"/>
+      <c r="D199" s="6"/>
       <c r="E199" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F199" s="2"/>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G199" s="2"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
         <v>905</v>
       </c>
@@ -13826,13 +14242,14 @@
       <c r="C200" s="2" t="s">
         <v>907</v>
       </c>
-      <c r="D200" s="2"/>
+      <c r="D200" s="6"/>
       <c r="E200" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F200" s="2"/>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G200" s="2"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
         <v>908</v>
       </c>
@@ -13842,13 +14259,14 @@
       <c r="C201" s="2" t="s">
         <v>910</v>
       </c>
-      <c r="D201" s="2"/>
+      <c r="D201" s="6"/>
       <c r="E201" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F201" s="2"/>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G201" s="2"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
         <v>911</v>
       </c>
@@ -13858,13 +14276,14 @@
       <c r="C202" s="2" t="s">
         <v>913</v>
       </c>
-      <c r="D202" s="2"/>
+      <c r="D202" s="6"/>
       <c r="E202" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F202" s="2"/>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G202" s="2"/>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
         <v>914</v>
       </c>
@@ -13874,13 +14293,14 @@
       <c r="C203" s="2" t="s">
         <v>916</v>
       </c>
-      <c r="D203" s="2"/>
+      <c r="D203" s="6"/>
       <c r="E203" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F203" s="2"/>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G203" s="2"/>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
         <v>917</v>
       </c>
@@ -13890,15 +14310,16 @@
       <c r="C204" s="2" t="s">
         <v>919</v>
       </c>
-      <c r="D204" s="2" t="s">
+      <c r="D204" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F204" s="2"/>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G204" s="2"/>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
         <v>920</v>
       </c>
@@ -13908,15 +14329,16 @@
       <c r="C205" s="2" t="s">
         <v>922</v>
       </c>
-      <c r="D205" s="2" t="s">
+      <c r="D205" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F205" s="2"/>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G205" s="2"/>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
         <v>923</v>
       </c>
@@ -13926,15 +14348,16 @@
       <c r="C206" s="2" t="s">
         <v>925</v>
       </c>
-      <c r="D206" s="2" t="s">
+      <c r="D206" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F206" s="2"/>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G206" s="2"/>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
         <v>926</v>
       </c>
@@ -13944,15 +14367,16 @@
       <c r="C207" s="2" t="s">
         <v>927</v>
       </c>
-      <c r="D207" s="2" t="s">
+      <c r="D207" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F207" s="2"/>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G207" s="2"/>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
         <v>928</v>
       </c>
@@ -13962,15 +14386,17 @@
       <c r="C208" s="2" t="s">
         <v>930</v>
       </c>
-      <c r="D208" s="2" t="s">
+      <c r="D208" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F208" s="2"/>
+      <c r="G208" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="F1:F208"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BookigModel2.0_Amadeus.xlsx
+++ b/BookigModel2.0_Amadeus.xlsx
@@ -17,7 +17,7 @@
     <sheet name="DJ" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DJ!$F$1:$F$208</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DJ!$A$1:$A$208</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -10724,9 +10724,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A206" sqref="A206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14396,7 +14396,7 @@
       <c r="G208" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="F1:F208"/>
+  <autoFilter ref="A1:A208"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>